--- a/Optimisation data/combined/Biomarkers + Clinical C/top/SHAP/catboost_optimisation.xlsx
+++ b/Optimisation data/combined/Biomarkers + Clinical C/top/SHAP/catboost_optimisation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="15">
   <si>
     <t>iterations</t>
   </si>
@@ -55,10 +55,10 @@
     <t>roc_auc_std</t>
   </si>
   <si>
-    <t>{'depth': 6, 'learning_rate': 0.3}</t>
+    <t>{'depth': 4, 'learning_rate': 0.1}</t>
   </si>
   <si>
-    <t>[0.73205742 0.66985646 0.71770335 0.82296651 0.745     ]</t>
+    <t>[0.98611111 0.75       0.8        0.78333333 0.96666667]</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6606227728129255</v>
+        <v>0.3977777777777777</v>
       </c>
       <c r="D2">
-        <v>0.06110007254194202</v>
+        <v>0.2795940620009174</v>
       </c>
       <c r="E2">
-        <v>0.7959284394326096</v>
+        <v>0.6456961318251641</v>
       </c>
       <c r="F2">
-        <v>0.03121403409141824</v>
+        <v>0.08246289664765705</v>
       </c>
       <c r="G2">
-        <v>0.6627815557959156</v>
+        <v>0.6536037414899198</v>
       </c>
       <c r="H2">
-        <v>0.02996396846061822</v>
+        <v>0.02110518925216687</v>
       </c>
       <c r="I2">
-        <v>0.5865906824061625</v>
+        <v>0.632314023725507</v>
       </c>
       <c r="J2">
-        <v>0.01232282325078361</v>
+        <v>0.009754835432800356</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -501,10 +501,10 @@
         <v>14</v>
       </c>
       <c r="M2">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N2">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -515,28 +515,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7607751937984497</v>
+        <v>0.5485714285714286</v>
       </c>
       <c r="D3">
-        <v>0.04628214634631569</v>
+        <v>0.1264552478358071</v>
       </c>
       <c r="E3">
-        <v>0.8816146313647331</v>
+        <v>0.6695098039215687</v>
       </c>
       <c r="F3">
-        <v>0.02336116953489309</v>
+        <v>0.04126121939160831</v>
       </c>
       <c r="G3">
-        <v>0.6465961073496034</v>
+        <v>0.6170509388032093</v>
       </c>
       <c r="H3">
-        <v>0.02715717070967713</v>
+        <v>0.02383060745127077</v>
       </c>
       <c r="I3">
-        <v>0.5005737070214539</v>
+        <v>0.5789301428914978</v>
       </c>
       <c r="J3">
-        <v>0.01078843235826445</v>
+        <v>0.008578199112190875</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -545,10 +545,10 @@
         <v>14</v>
       </c>
       <c r="M3">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N3">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -559,28 +559,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7382472320645888</v>
+        <v>0.5390476190476191</v>
       </c>
       <c r="D4">
-        <v>0.03003686583328651</v>
+        <v>0.1468644306758189</v>
       </c>
       <c r="E4">
-        <v>0.9216458734779618</v>
+        <v>0.7280755850727387</v>
       </c>
       <c r="F4">
-        <v>0.0134399503978312</v>
+        <v>0.07293939800858854</v>
       </c>
       <c r="G4">
-        <v>0.6386498485188926</v>
+        <v>0.5862593320587576</v>
       </c>
       <c r="H4">
-        <v>0.02284870493983111</v>
+        <v>0.03023200797242232</v>
       </c>
       <c r="I4">
-        <v>0.4378197468734503</v>
+        <v>0.529218500159234</v>
       </c>
       <c r="J4">
-        <v>0.01003077535003667</v>
+        <v>0.01465336939175157</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -589,10 +589,10 @@
         <v>14</v>
       </c>
       <c r="M4">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N4">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -603,28 +603,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7521077888519749</v>
+        <v>0.5240259740259741</v>
       </c>
       <c r="D5">
-        <v>0.03151792778210667</v>
+        <v>0.174263261371375</v>
       </c>
       <c r="E5">
-        <v>0.9535799326995681</v>
+        <v>0.7961058050531734</v>
       </c>
       <c r="F5">
-        <v>0.01535939526413394</v>
+        <v>0.05272297288700992</v>
       </c>
       <c r="G5">
-        <v>0.6372072951898472</v>
+        <v>0.5665344931475877</v>
       </c>
       <c r="H5">
-        <v>0.04542276180877293</v>
+        <v>0.04142984004783445</v>
       </c>
       <c r="I5">
-        <v>0.3740274423536322</v>
+        <v>0.4918008249885227</v>
       </c>
       <c r="J5">
-        <v>0.003163123609407861</v>
+        <v>0.01581040302551687</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>14</v>
       </c>
       <c r="M5">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N5">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -647,28 +647,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7495359096828923</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="D6">
-        <v>0.02285238892588323</v>
+        <v>0.3046316686011801</v>
       </c>
       <c r="E6">
-        <v>0.9694245945537858</v>
+        <v>0.8110682110682111</v>
       </c>
       <c r="F6">
-        <v>0.01028686158813007</v>
+        <v>0.06023817585798086</v>
       </c>
       <c r="G6">
-        <v>0.6223886182679561</v>
+        <v>0.5516525409230073</v>
       </c>
       <c r="H6">
-        <v>0.02411106308467565</v>
+        <v>0.04285517236773937</v>
       </c>
       <c r="I6">
-        <v>0.3288846436509617</v>
+        <v>0.4700393532252838</v>
       </c>
       <c r="J6">
-        <v>0.007296002658415076</v>
+        <v>0.0137008621237151</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>14</v>
       </c>
       <c r="M6">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N6">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -691,28 +691,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.7506382518974691</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="D7">
-        <v>0.03825571395758354</v>
+        <v>0.3046316686011801</v>
       </c>
       <c r="E7">
-        <v>0.9720701458021553</v>
+        <v>0.8203174603174602</v>
       </c>
       <c r="F7">
-        <v>0.007327402830196836</v>
+        <v>0.03129440659449842</v>
       </c>
       <c r="G7">
-        <v>0.6267933259390536</v>
+        <v>0.5300638152642455</v>
       </c>
       <c r="H7">
-        <v>0.04096951858242426</v>
+        <v>0.04613694878433009</v>
       </c>
       <c r="I7">
-        <v>0.2968336687103522</v>
+        <v>0.4392683451607801</v>
       </c>
       <c r="J7">
-        <v>0.008758812720989356</v>
+        <v>0.00985116333943557</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>14</v>
       </c>
       <c r="M7">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N7">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -735,28 +735,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7698272529873804</v>
+        <v>0.5073593073593073</v>
       </c>
       <c r="D8">
-        <v>0.06093047600971108</v>
+        <v>0.2912747650193758</v>
       </c>
       <c r="E8">
-        <v>0.9746186303148328</v>
+        <v>0.8234502923976608</v>
       </c>
       <c r="F8">
-        <v>0.0001451520920155639</v>
+        <v>0.06744328097922361</v>
       </c>
       <c r="G8">
-        <v>0.6226979506316415</v>
+        <v>0.5131386929141883</v>
       </c>
       <c r="H8">
-        <v>0.05576199908389071</v>
+        <v>0.05950666660176809</v>
       </c>
       <c r="I8">
-        <v>0.2697319773242389</v>
+        <v>0.4119695310092094</v>
       </c>
       <c r="J8">
-        <v>0.01188220109375585</v>
+        <v>0.01182477697395496</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -765,10 +765,10 @@
         <v>14</v>
       </c>
       <c r="M8">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N8">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -779,28 +779,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.748900315037581</v>
+        <v>0.5240259740259741</v>
       </c>
       <c r="D9">
-        <v>0.03411121776575419</v>
+        <v>0.3047419962259684</v>
       </c>
       <c r="E9">
-        <v>0.9897267310458189</v>
+        <v>0.8366262237469668</v>
       </c>
       <c r="F9">
-        <v>0.008591892964506544</v>
+        <v>0.04191882582501998</v>
       </c>
       <c r="G9">
-        <v>0.6287684528083762</v>
+        <v>0.5014027887518852</v>
       </c>
       <c r="H9">
-        <v>0.06931033944462753</v>
+        <v>0.06165578100572619</v>
       </c>
       <c r="I9">
-        <v>0.2420733207317894</v>
+        <v>0.3875271147360933</v>
       </c>
       <c r="J9">
-        <v>0.01371281523918992</v>
+        <v>0.01042769201631142</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="M9">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N9">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -823,28 +823,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7797551335197147</v>
+        <v>0.5240259740259741</v>
       </c>
       <c r="D10">
-        <v>0.04440624574461077</v>
+        <v>0.3047419962259684</v>
       </c>
       <c r="E10">
-        <v>0.9896939619520266</v>
+        <v>0.8361579596873714</v>
       </c>
       <c r="F10">
-        <v>0.005761361739779453</v>
+        <v>0.06377529302410134</v>
       </c>
       <c r="G10">
-        <v>0.6235240182373941</v>
+        <v>0.4935400430000906</v>
       </c>
       <c r="H10">
-        <v>0.07062044524116277</v>
+        <v>0.06316437366075639</v>
       </c>
       <c r="I10">
-        <v>0.2178161251635333</v>
+        <v>0.3680952173352451</v>
       </c>
       <c r="J10">
-        <v>0.01450954095664702</v>
+        <v>0.01145065184159621</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>14</v>
       </c>
       <c r="M10">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N10">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -867,28 +867,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7636730213657155</v>
+        <v>0.5309523809523811</v>
       </c>
       <c r="D11">
-        <v>0.02705434197072366</v>
+        <v>0.3255468101880016</v>
       </c>
       <c r="E11">
-        <v>0.9935483870967742</v>
+        <v>0.8622962812436497</v>
       </c>
       <c r="F11">
-        <v>0.00790157981542958</v>
+        <v>0.03879034041034506</v>
       </c>
       <c r="G11">
-        <v>0.6352228848673021</v>
+        <v>0.4832664154699634</v>
       </c>
       <c r="H11">
-        <v>0.06526810207217404</v>
+        <v>0.07006628520445161</v>
       </c>
       <c r="I11">
-        <v>0.1963539630959736</v>
+        <v>0.3448486321922123</v>
       </c>
       <c r="J11">
-        <v>0.0130630013773517</v>
+        <v>0.01355682056917223</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>14</v>
       </c>
       <c r="M11">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N11">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -911,28 +911,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7830263678629852</v>
+        <v>0.5557720057720058</v>
       </c>
       <c r="D12">
-        <v>0.06040788672457546</v>
+        <v>0.1953888029923746</v>
       </c>
       <c r="E12">
-        <v>0.9974024878768712</v>
+        <v>0.8932608722082407</v>
       </c>
       <c r="F12">
-        <v>0.003556914934445639</v>
+        <v>0.02072921449830789</v>
       </c>
       <c r="G12">
-        <v>0.6320508472836719</v>
+        <v>0.482071545276904</v>
       </c>
       <c r="H12">
-        <v>0.0679797282741029</v>
+        <v>0.0734513760346845</v>
       </c>
       <c r="I12">
-        <v>0.1815880908589425</v>
+        <v>0.3276588103596316</v>
       </c>
       <c r="J12">
-        <v>0.01330065890424863</v>
+        <v>0.01208976829043452</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>14</v>
       </c>
       <c r="M12">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N12">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -955,28 +955,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.783598444680099</v>
+        <v>0.5668831168831169</v>
       </c>
       <c r="D13">
-        <v>0.07120185780097164</v>
+        <v>0.1889487656120339</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.8872864767601609</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.02420996218463276</v>
       </c>
       <c r="G13">
-        <v>0.6305521694167856</v>
+        <v>0.4792072274061181</v>
       </c>
       <c r="H13">
-        <v>0.08329831423922925</v>
+        <v>0.07312301283040085</v>
       </c>
       <c r="I13">
-        <v>0.164961758301845</v>
+        <v>0.3131995776789914</v>
       </c>
       <c r="J13">
-        <v>0.01711490758575834</v>
+        <v>0.0112400553385405</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>14</v>
       </c>
       <c r="M13">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N13">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -999,28 +999,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8019022907554303</v>
+        <v>0.5668831168831169</v>
       </c>
       <c r="D14">
-        <v>0.07593285598304284</v>
+        <v>0.1889487656120339</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.8932608722082407</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.02072921449830789</v>
       </c>
       <c r="G14">
-        <v>0.630048871337278</v>
+        <v>0.4770403048350214</v>
       </c>
       <c r="H14">
-        <v>0.09136148097950444</v>
+        <v>0.07654090205857139</v>
       </c>
       <c r="I14">
-        <v>0.1538767177712898</v>
+        <v>0.299520499526493</v>
       </c>
       <c r="J14">
-        <v>0.01725078260532784</v>
+        <v>0.01134899919648496</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>14</v>
       </c>
       <c r="M14">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N14">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1043,28 +1043,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7878235239937366</v>
+        <v>0.5190476190476191</v>
       </c>
       <c r="D15">
-        <v>0.06032796265589691</v>
+        <v>0.1432534186332507</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.9211094772070382</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.03919909772170026</v>
       </c>
       <c r="G15">
-        <v>0.639692816959475</v>
+        <v>0.47938423534518</v>
       </c>
       <c r="H15">
-        <v>0.08817311013628427</v>
+        <v>0.08130926137479817</v>
       </c>
       <c r="I15">
-        <v>0.1420354987155474</v>
+        <v>0.2881928861961119</v>
       </c>
       <c r="J15">
-        <v>0.0128851855686461</v>
+        <v>0.01144086890535768</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1073,10 +1073,10 @@
         <v>14</v>
       </c>
       <c r="M15">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N15">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1087,28 +1087,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7830641821946169</v>
+        <v>0.5502164502164502</v>
       </c>
       <c r="D16">
-        <v>0.0626851385182509</v>
+        <v>0.1716410638085481</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.9318787079762689</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.04250875886207553</v>
       </c>
       <c r="G16">
-        <v>0.6330845646571462</v>
+        <v>0.4748562723075633</v>
       </c>
       <c r="H16">
-        <v>0.08221920627673655</v>
+        <v>0.08488725738853772</v>
       </c>
       <c r="I16">
-        <v>0.1304665760630869</v>
+        <v>0.2783348325544702</v>
       </c>
       <c r="J16">
-        <v>0.01145054897479274</v>
+        <v>0.01106975826152285</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N16">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1131,28 +1131,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7971519708361814</v>
+        <v>0.5502164502164502</v>
       </c>
       <c r="D17">
-        <v>0.04510786236354308</v>
+        <v>0.1716410638085481</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.9378531034243487</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.03137743754254823</v>
       </c>
       <c r="G17">
-        <v>0.6322605711147908</v>
+        <v>0.4752216893328954</v>
       </c>
       <c r="H17">
-        <v>0.0767636585348785</v>
+        <v>0.08673627576279253</v>
       </c>
       <c r="I17">
-        <v>0.1185481544533259</v>
+        <v>0.2703662897862161</v>
       </c>
       <c r="J17">
-        <v>0.009507934780137745</v>
+        <v>0.01228370769835492</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>14</v>
       </c>
       <c r="M17">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N17">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1175,28 +1175,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7990904410895301</v>
+        <v>0.5502164502164502</v>
       </c>
       <c r="D18">
-        <v>0.04067895257816524</v>
+        <v>0.1716410638085481</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.9381583884664758</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03057995539598961</v>
       </c>
       <c r="G18">
-        <v>0.6354714865670358</v>
+        <v>0.4702966931012019</v>
       </c>
       <c r="H18">
-        <v>0.08730891085996553</v>
+        <v>0.09445504744812012</v>
       </c>
       <c r="I18">
-        <v>0.1087014286654758</v>
+        <v>0.2592795164608928</v>
       </c>
       <c r="J18">
-        <v>0.007093113051288817</v>
+        <v>0.009536097001862637</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1205,10 +1205,10 @@
         <v>14</v>
       </c>
       <c r="M18">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N18">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1219,28 +1219,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7800185675053118</v>
+        <v>0.4930735930735931</v>
       </c>
       <c r="D19">
-        <v>0.03741895837890061</v>
+        <v>0.2890903127015573</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.9381583884664758</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.03057995539598961</v>
       </c>
       <c r="G19">
-        <v>0.6374236435019391</v>
+        <v>0.4715637130178872</v>
       </c>
       <c r="H19">
-        <v>0.09173814236657149</v>
+        <v>0.09292329658001357</v>
       </c>
       <c r="I19">
-        <v>0.1009483404083195</v>
+        <v>0.2492432934830472</v>
       </c>
       <c r="J19">
-        <v>0.008111022663206737</v>
+        <v>0.008558569420004825</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>14</v>
       </c>
       <c r="M19">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N19">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1263,28 +1263,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.76811380560055</v>
+        <v>0.4930735930735931</v>
       </c>
       <c r="D20">
-        <v>0.03508080704994927</v>
+        <v>0.2890903127015573</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.9381365042340652</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.02433045772080426</v>
       </c>
       <c r="G20">
-        <v>0.6446149791608091</v>
+        <v>0.473983143848528</v>
       </c>
       <c r="H20">
-        <v>0.09064938191378709</v>
+        <v>0.09834859985128536</v>
       </c>
       <c r="I20">
-        <v>0.0931314182455845</v>
+        <v>0.239064166345864</v>
       </c>
       <c r="J20">
-        <v>0.007429413091296179</v>
+        <v>0.01102089280328608</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>14</v>
       </c>
       <c r="M20">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N20">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1307,28 +1307,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.795311763626642</v>
+        <v>0.4930735930735931</v>
       </c>
       <c r="D21">
-        <v>0.04810623825371083</v>
+        <v>0.2890903127015573</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.9546091307066916</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.02160932021632569</v>
       </c>
       <c r="G21">
-        <v>0.6422380856213274</v>
+        <v>0.4747670467712412</v>
       </c>
       <c r="H21">
-        <v>0.09150962050821332</v>
+        <v>0.100224981195844</v>
       </c>
       <c r="I21">
-        <v>0.08463795810879567</v>
+        <v>0.227283345843761</v>
       </c>
       <c r="J21">
-        <v>0.007324210732054403</v>
+        <v>0.01325393145885977</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1337,10 +1337,10 @@
         <v>14</v>
       </c>
       <c r="M21">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N21">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1351,28 +1351,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7917401792269236</v>
+        <v>0.4930735930735931</v>
       </c>
       <c r="D22">
-        <v>0.0518665471269254</v>
+        <v>0.2890903127015573</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.9597310819262038</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.02321885623963718</v>
       </c>
       <c r="G22">
-        <v>0.6370279784783877</v>
+        <v>0.4686158795290849</v>
       </c>
       <c r="H22">
-        <v>0.09052380101299794</v>
+        <v>0.106510764183947</v>
       </c>
       <c r="I22">
-        <v>0.07860027094313093</v>
+        <v>0.2167567198985841</v>
       </c>
       <c r="J22">
-        <v>0.006814586984085904</v>
+        <v>0.01373302151435687</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>14</v>
       </c>
       <c r="M22">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N22">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1395,28 +1395,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7820627022323735</v>
+        <v>0.5264069264069263</v>
       </c>
       <c r="D23">
-        <v>0.0408151191723295</v>
+        <v>0.2995095408006902</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.9751156973108193</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.01768535827691102</v>
       </c>
       <c r="G23">
-        <v>0.6354863130828253</v>
+        <v>0.4691978295790938</v>
       </c>
       <c r="H23">
-        <v>0.08384674581893037</v>
+        <v>0.1106302427460188</v>
       </c>
       <c r="I23">
-        <v>0.07305580472815407</v>
+        <v>0.2075289829660708</v>
       </c>
       <c r="J23">
-        <v>0.006699530350608485</v>
+        <v>0.01477545946388852</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>14</v>
       </c>
       <c r="M23">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N23">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1439,28 +1439,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.786209043695788</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="D24">
-        <v>0.04734090127134105</v>
+        <v>0.2904371558471791</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.9702376485303315</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.01132614634115148</v>
       </c>
       <c r="G24">
-        <v>0.6420936469237494</v>
+        <v>0.4750479588423817</v>
       </c>
       <c r="H24">
-        <v>0.08625729359610113</v>
+        <v>0.1168650532274295</v>
       </c>
       <c r="I24">
-        <v>0.0667743426709568</v>
+        <v>0.2006186828751051</v>
       </c>
       <c r="J24">
-        <v>0.006639038700539789</v>
+        <v>0.01544380542871989</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>14</v>
       </c>
       <c r="M24">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N24">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1483,28 +1483,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7911880872750439</v>
+        <v>0.5264069264069263</v>
       </c>
       <c r="D25">
-        <v>0.05238306100973338</v>
+        <v>0.2995095408006902</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.9802439024390244</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.02084616895886983</v>
       </c>
       <c r="G25">
-        <v>0.6473095451530518</v>
+        <v>0.4790259120137222</v>
       </c>
       <c r="H25">
-        <v>0.07602557090906223</v>
+        <v>0.1141685151262688</v>
       </c>
       <c r="I25">
-        <v>0.06126036614921844</v>
+        <v>0.1948848373720636</v>
       </c>
       <c r="J25">
-        <v>0.006490221188633059</v>
+        <v>0.01444027472749838</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1513,10 +1513,10 @@
         <v>14</v>
       </c>
       <c r="M25">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N25">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1527,28 +1527,28 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.7850342411211977</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="D26">
-        <v>0.05289391557730658</v>
+        <v>0.2904371558471791</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.9802439024390244</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.02084616895886983</v>
       </c>
       <c r="G26">
-        <v>0.6471873743476264</v>
+        <v>0.4768521927202659</v>
       </c>
       <c r="H26">
-        <v>0.0750927721274065</v>
+        <v>0.1139150629167935</v>
       </c>
       <c r="I26">
-        <v>0.05796880180520385</v>
+        <v>0.1893518267504699</v>
       </c>
       <c r="J26">
-        <v>0.007260285349363364</v>
+        <v>0.01336184292009568</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1557,10 +1557,10 @@
         <v>14</v>
       </c>
       <c r="M26">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N26">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1571,28 +1571,28 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.7782510176038994</v>
+        <v>0.4930735930735931</v>
       </c>
       <c r="D27">
-        <v>0.03448301189742042</v>
+        <v>0.2890903127015573</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.9802439024390244</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.02084616895886983</v>
       </c>
       <c r="G27">
-        <v>0.66229536637401</v>
+        <v>0.4779291840988648</v>
       </c>
       <c r="H27">
-        <v>0.08245961376175914</v>
+        <v>0.1202028355140828</v>
       </c>
       <c r="I27">
-        <v>0.05295505503897098</v>
+        <v>0.178923251857864</v>
       </c>
       <c r="J27">
-        <v>0.006100476352267585</v>
+        <v>0.01403337882716823</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1601,10 +1601,10 @@
         <v>14</v>
       </c>
       <c r="M27">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N27">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1615,10 +1615,10 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.7882510176038993</v>
+        <v>0.562121212121212</v>
       </c>
       <c r="D28">
-        <v>0.04725254140699899</v>
+        <v>0.3163910646417246</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1627,16 +1627,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.6652841395118061</v>
+        <v>0.4769333741275757</v>
       </c>
       <c r="H28">
-        <v>0.08848857252549154</v>
+        <v>0.1226599972160221</v>
       </c>
       <c r="I28">
-        <v>0.04960238753354274</v>
+        <v>0.1707072071896009</v>
       </c>
       <c r="J28">
-        <v>0.005029797220974208</v>
+        <v>0.01427145196586803</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1645,10 +1645,10 @@
         <v>14</v>
       </c>
       <c r="M28">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N28">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1659,28 +1659,28 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.776253340484271</v>
+        <v>0.562121212121212</v>
       </c>
       <c r="D29">
-        <v>0.03454458398194685</v>
+        <v>0.3163910646417246</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.01090764867073069</v>
       </c>
       <c r="G29">
-        <v>0.6635561555836812</v>
+        <v>0.4776757059487938</v>
       </c>
       <c r="H29">
-        <v>0.08774718965515027</v>
+        <v>0.1266261708024217</v>
       </c>
       <c r="I29">
-        <v>0.04585680577881558</v>
+        <v>0.1656646631127303</v>
       </c>
       <c r="J29">
-        <v>0.004684961769943287</v>
+        <v>0.01547344720616465</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>14</v>
       </c>
       <c r="M29">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N29">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1703,28 +1703,28 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.7901557795086612</v>
+        <v>0.562121212121212</v>
       </c>
       <c r="D30">
-        <v>0.0480301030001898</v>
+        <v>0.3163910646417246</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.01090764867073069</v>
       </c>
       <c r="G30">
-        <v>0.6611521008699868</v>
+        <v>0.4784458377864591</v>
       </c>
       <c r="H30">
-        <v>0.0851300277135701</v>
+        <v>0.128221002311336</v>
       </c>
       <c r="I30">
-        <v>0.04250885334415969</v>
+        <v>0.1599308018041743</v>
       </c>
       <c r="J30">
-        <v>0.003817647711437922</v>
+        <v>0.01635969537321455</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>14</v>
       </c>
       <c r="M30">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N30">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1747,28 +1747,28 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.7976996839925902</v>
+        <v>0.562121212121212</v>
       </c>
       <c r="D31">
-        <v>0.04167231023572675</v>
+        <v>0.3163910646417246</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.01090764867073069</v>
       </c>
       <c r="G31">
-        <v>0.6647144790712399</v>
+        <v>0.4815953459838627</v>
       </c>
       <c r="H31">
-        <v>0.0872925345025847</v>
+        <v>0.1336607537397047</v>
       </c>
       <c r="I31">
-        <v>0.03996376273370117</v>
+        <v>0.1545993995339374</v>
       </c>
       <c r="J31">
-        <v>0.003517033706667129</v>
+        <v>0.017299614572266</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>14</v>
       </c>
       <c r="M31">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N31">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1791,10 +1791,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.7932941941296897</v>
+        <v>0.6192640692640692</v>
       </c>
       <c r="D32">
-        <v>0.04886571751997435</v>
+        <v>0.1900705292630568</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1803,16 +1803,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.6664567062823596</v>
+        <v>0.4779220310590672</v>
       </c>
       <c r="H32">
-        <v>0.08468929980431703</v>
+        <v>0.1384280304971048</v>
       </c>
       <c r="I32">
-        <v>0.03802679927121618</v>
+        <v>0.1479100636925598</v>
       </c>
       <c r="J32">
-        <v>0.003884361675897402</v>
+        <v>0.01667051617326004</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>14</v>
       </c>
       <c r="M32">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N32">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1835,10 +1835,10 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.7907118967988533</v>
+        <v>0.6192640692640692</v>
       </c>
       <c r="D33">
-        <v>0.05493701127039991</v>
+        <v>0.1900705292630568</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1847,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.6686323233879889</v>
+        <v>0.4770476555171833</v>
       </c>
       <c r="H33">
-        <v>0.09041622622458914</v>
+        <v>0.1417251332933053</v>
       </c>
       <c r="I33">
-        <v>0.03577358508184936</v>
+        <v>0.1432975255420026</v>
       </c>
       <c r="J33">
-        <v>0.003631952739214426</v>
+        <v>0.01629923958399197</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1865,10 +1865,10 @@
         <v>14</v>
       </c>
       <c r="M33">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N33">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1879,10 +1879,10 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.7895289671086487</v>
+        <v>0.6121212121212121</v>
       </c>
       <c r="D34">
-        <v>0.04802054305486567</v>
+        <v>0.205762373309535</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.6717906081439484</v>
+        <v>0.4743000370682942</v>
       </c>
       <c r="H34">
-        <v>0.09205595812581113</v>
+        <v>0.1438676063208867</v>
       </c>
       <c r="I34">
-        <v>0.0337396865706031</v>
+        <v>0.1378892089556563</v>
       </c>
       <c r="J34">
-        <v>0.003615291090452013</v>
+        <v>0.01490297827272398</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>14</v>
       </c>
       <c r="M34">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N34">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1923,10 +1923,10 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.7823686735396286</v>
+        <v>0.5787878787878787</v>
       </c>
       <c r="D35">
-        <v>0.04203876691447352</v>
+        <v>0.2082024382183682</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.680796680385745</v>
+        <v>0.4741815089717119</v>
       </c>
       <c r="H35">
-        <v>0.09376580865285793</v>
+        <v>0.1453227997607319</v>
       </c>
       <c r="I35">
-        <v>0.03182337416329322</v>
+        <v>0.1337264038467387</v>
       </c>
       <c r="J35">
-        <v>0.003623191072435233</v>
+        <v>0.01461010248048912</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1953,10 +1953,10 @@
         <v>14</v>
       </c>
       <c r="M35">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N35">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1967,10 +1967,10 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.784348578579509</v>
+        <v>0.5859307359307359</v>
       </c>
       <c r="D36">
-        <v>0.04684360791631052</v>
+        <v>0.194247638852259</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.6830365046280696</v>
+        <v>0.4729252156400675</v>
       </c>
       <c r="H36">
-        <v>0.09479777671325836</v>
+        <v>0.1493250866828955</v>
       </c>
       <c r="I36">
-        <v>0.03017246103168734</v>
+        <v>0.1280985105724518</v>
       </c>
       <c r="J36">
-        <v>0.003411780982871568</v>
+        <v>0.01458501612948014</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>14</v>
       </c>
       <c r="M36">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N36">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2011,10 +2011,10 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.7822298201449612</v>
+        <v>0.5859307359307359</v>
       </c>
       <c r="D37">
-        <v>0.03000214783643485</v>
+        <v>0.194247638852259</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2023,16 +2023,16 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.68509135145879</v>
+        <v>0.4785682701986341</v>
       </c>
       <c r="H37">
-        <v>0.09160532432412981</v>
+        <v>0.1533888494004919</v>
       </c>
       <c r="I37">
-        <v>0.02854441218136099</v>
+        <v>0.1241144401778903</v>
       </c>
       <c r="J37">
-        <v>0.003036563221137196</v>
+        <v>0.01500776852381872</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         <v>14</v>
       </c>
       <c r="M37">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N37">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2055,10 +2055,10 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.7788995703762286</v>
+        <v>0.6192640692640692</v>
       </c>
       <c r="D38">
-        <v>0.03086142117975657</v>
+        <v>0.1900705292630568</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2067,16 +2067,16 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.6880303617853706</v>
+        <v>0.4784606631713454</v>
       </c>
       <c r="H38">
-        <v>0.0967437164537904</v>
+        <v>0.1583347024150503</v>
       </c>
       <c r="I38">
-        <v>0.02706671176694275</v>
+        <v>0.1209178074022287</v>
       </c>
       <c r="J38">
-        <v>0.002629385060020287</v>
+        <v>0.0151307880293357</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2085,10 +2085,10 @@
         <v>14</v>
       </c>
       <c r="M38">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N38">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2099,10 +2099,10 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.7825483441044081</v>
+        <v>0.5987878787878788</v>
       </c>
       <c r="D39">
-        <v>0.01856848808490189</v>
+        <v>0.2034916738853939</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2111,16 +2111,16 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.6872246150269159</v>
+        <v>0.4811165840002897</v>
       </c>
       <c r="H39">
-        <v>0.09615127993649805</v>
+        <v>0.167752391750931</v>
       </c>
       <c r="I39">
-        <v>0.02562471746377157</v>
+        <v>0.1165303719416445</v>
       </c>
       <c r="J39">
-        <v>0.002366070024505531</v>
+        <v>0.01512193722016029</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>14</v>
       </c>
       <c r="M39">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N39">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2143,10 +2143,10 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.7706599832915623</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D40">
-        <v>0.02877845915257933</v>
+        <v>0.2251542681017716</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.6925999613461695</v>
+        <v>0.4781476386262847</v>
       </c>
       <c r="H40">
-        <v>0.09728827556870132</v>
+        <v>0.1706081308580923</v>
       </c>
       <c r="I40">
-        <v>0.02464959595528278</v>
+        <v>0.111250248652515</v>
       </c>
       <c r="J40">
-        <v>0.002297917285939065</v>
+        <v>0.01358896459900784</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>14</v>
       </c>
       <c r="M40">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N40">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2187,10 +2187,10 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.7822784385713447</v>
+        <v>0.6271428571428571</v>
       </c>
       <c r="D41">
-        <v>0.03421927218662975</v>
+        <v>0.2100480454703058</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2199,16 +2199,16 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.6955260495245301</v>
+        <v>0.4813513179474104</v>
       </c>
       <c r="H41">
-        <v>0.1025081166829018</v>
+        <v>0.1703114786695505</v>
       </c>
       <c r="I41">
-        <v>0.02360056398648398</v>
+        <v>0.1080588393881305</v>
       </c>
       <c r="J41">
-        <v>0.002239044884167137</v>
+        <v>0.01401900705832489</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>14</v>
       </c>
       <c r="M41">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N41">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2231,10 +2231,10 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.7760706113108859</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="D42">
-        <v>0.02775361398455003</v>
+        <v>0.2283394159773754</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2243,16 +2243,16 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.6967260564464779</v>
+        <v>0.4830426026099669</v>
       </c>
       <c r="H42">
-        <v>0.1002402461292576</v>
+        <v>0.175169537402141</v>
       </c>
       <c r="I42">
-        <v>0.02252174938611478</v>
+        <v>0.104842259419753</v>
       </c>
       <c r="J42">
-        <v>0.002198719646997291</v>
+        <v>0.01386617455869032</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2261,10 +2261,10 @@
         <v>14</v>
       </c>
       <c r="M42">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N42">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2275,10 +2275,10 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.7818291938136543</v>
+        <v>0.6199999999999999</v>
       </c>
       <c r="D43">
-        <v>0.02705792712112242</v>
+        <v>0.2246602372967282</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0.7007802571979108</v>
+        <v>0.4874010676334649</v>
       </c>
       <c r="H43">
-        <v>0.0988670780888864</v>
+        <v>0.1797300658244214</v>
       </c>
       <c r="I43">
-        <v>0.02164619275701593</v>
+        <v>0.1011593240248409</v>
       </c>
       <c r="J43">
-        <v>0.002156599073173599</v>
+        <v>0.01269764162187233</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2305,10 +2305,10 @@
         <v>14</v>
       </c>
       <c r="M43">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N43">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2319,10 +2319,10 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.7795488721804511</v>
+        <v>0.6379487179487179</v>
       </c>
       <c r="D44">
-        <v>0.02979274223536163</v>
+        <v>0.2483055661375414</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2331,16 +2331,16 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.7013191819105327</v>
+        <v>0.4857795204186539</v>
       </c>
       <c r="H44">
-        <v>0.1042972117889017</v>
+        <v>0.1845843853453275</v>
       </c>
       <c r="I44">
-        <v>0.02071511886883943</v>
+        <v>0.09809315707597979</v>
       </c>
       <c r="J44">
-        <v>0.002024572941924093</v>
+        <v>0.0116609655026466</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>14</v>
       </c>
       <c r="M44">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N44">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2363,10 +2363,10 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.7822784385713447</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="D45">
-        <v>0.03421927218662975</v>
+        <v>0.2635274697242991</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.7047777680603352</v>
+        <v>0.487587897354107</v>
       </c>
       <c r="H45">
-        <v>0.1043612381186601</v>
+        <v>0.1864025393376548</v>
       </c>
       <c r="I45">
-        <v>0.01994897312258557</v>
+        <v>0.09564265184527129</v>
       </c>
       <c r="J45">
-        <v>0.002043955080773025</v>
+        <v>0.01075574719898015</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>14</v>
       </c>
       <c r="M45">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N45">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2407,10 +2407,10 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.7915152819436784</v>
+        <v>0.55</v>
       </c>
       <c r="D46">
-        <v>0.03250761249143409</v>
+        <v>0.2801289385661935</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2419,16 +2419,16 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.7084317186961141</v>
+        <v>0.4870983280230103</v>
       </c>
       <c r="H46">
-        <v>0.1022449744711876</v>
+        <v>0.1883672373973259</v>
       </c>
       <c r="I46">
-        <v>0.01925457403413727</v>
+        <v>0.092848517987246</v>
       </c>
       <c r="J46">
-        <v>0.001827091251602991</v>
+        <v>0.01057684144639847</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2437,10 +2437,10 @@
         <v>14</v>
       </c>
       <c r="M46">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N46">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2451,10 +2451,10 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.78575669944091</v>
+        <v>0.5766666666666668</v>
       </c>
       <c r="D47">
-        <v>0.03513291737202102</v>
+        <v>0.2996757506965746</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2463,16 +2463,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.7115739527372323</v>
+        <v>0.4831195030114562</v>
       </c>
       <c r="H47">
-        <v>0.1083192561011988</v>
+        <v>0.1896842080301927</v>
       </c>
       <c r="I47">
-        <v>0.01847108428267314</v>
+        <v>0.09025608854824754</v>
       </c>
       <c r="J47">
-        <v>0.001606935175765936</v>
+        <v>0.01066269337830529</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>14</v>
       </c>
       <c r="M47">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N47">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2495,10 +2495,10 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.7915152819436784</v>
+        <v>0.55</v>
       </c>
       <c r="D48">
-        <v>0.03250761249143409</v>
+        <v>0.2801289385661935</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2507,16 +2507,16 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0.710613669606645</v>
+        <v>0.4844521397456841</v>
       </c>
       <c r="H48">
-        <v>0.113213348330859</v>
+        <v>0.1927691331101177</v>
       </c>
       <c r="I48">
-        <v>0.01783860511357395</v>
+        <v>0.08744631265612954</v>
       </c>
       <c r="J48">
-        <v>0.001464618524618491</v>
+        <v>0.01068611625164071</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>14</v>
       </c>
       <c r="M48">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N48">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2539,10 +2539,10 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.7915152819436784</v>
+        <v>0.6155555555555556</v>
       </c>
       <c r="D49">
-        <v>0.03250761249143409</v>
+        <v>0.2561406345962273</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2551,16 +2551,16 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0.7090242090579663</v>
+        <v>0.4830846794000875</v>
       </c>
       <c r="H49">
-        <v>0.1121303903762426</v>
+        <v>0.1935257457762817</v>
       </c>
       <c r="I49">
-        <v>0.01731332796845618</v>
+        <v>0.08495203267854397</v>
       </c>
       <c r="J49">
-        <v>0.001334048257477282</v>
+        <v>0.0102002103738127</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>14</v>
       </c>
       <c r="M49">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N49">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2583,10 +2583,10 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.7803021539863645</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="D50">
-        <v>0.03447978230560624</v>
+        <v>0.2384686225703861</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2595,16 +2595,16 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.7125621730312721</v>
+        <v>0.484711157779884</v>
       </c>
       <c r="H50">
-        <v>0.1128410898572293</v>
+        <v>0.1971781945008525</v>
       </c>
       <c r="I50">
-        <v>0.01675720596278697</v>
+        <v>0.082211063537117</v>
       </c>
       <c r="J50">
-        <v>0.001357869167318492</v>
+        <v>0.009695098785242542</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2613,10 +2613,10 @@
         <v>14</v>
       </c>
       <c r="M50">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N50">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2627,10 +2627,10 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.786060736489133</v>
+        <v>0.6199999999999999</v>
       </c>
       <c r="D51">
-        <v>0.03301218713905115</v>
+        <v>0.2246602372967282</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2639,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.7125900473166965</v>
+        <v>0.4888969499308655</v>
       </c>
       <c r="H51">
-        <v>0.11503936108252</v>
+        <v>0.2001423154468309</v>
       </c>
       <c r="I51">
-        <v>0.01625716976594734</v>
+        <v>0.07892373584958028</v>
       </c>
       <c r="J51">
-        <v>0.001395245368701993</v>
+        <v>0.01009757773947226</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2657,10 +2657,10 @@
         <v>14</v>
       </c>
       <c r="M51">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N51">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2671,10 +2671,10 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.7915152819436784</v>
+        <v>0.576068376068376</v>
       </c>
       <c r="D52">
-        <v>0.03250761249143409</v>
+        <v>0.2232808855696432</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2683,16 +2683,16 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.7084021898304004</v>
+        <v>0.4872463802255961</v>
       </c>
       <c r="H52">
-        <v>0.1171065172119873</v>
+        <v>0.2038670687366024</v>
       </c>
       <c r="I52">
-        <v>0.01577585506206239</v>
+        <v>0.07634209247355792</v>
       </c>
       <c r="J52">
-        <v>0.001367106011066546</v>
+        <v>0.009569975981101845</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2701,10 +2701,10 @@
         <v>14</v>
       </c>
       <c r="M52">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N52">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2715,10 +2715,10 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.786060736489133</v>
+        <v>0.6155555555555556</v>
       </c>
       <c r="D53">
-        <v>0.03301218713905115</v>
+        <v>0.2561406345962273</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0.7104431400824494</v>
+        <v>0.4848585344841934</v>
       </c>
       <c r="H53">
-        <v>0.1172075449695022</v>
+        <v>0.2045584494986188</v>
       </c>
       <c r="I53">
-        <v>0.01527169989278226</v>
+        <v>0.07413421194974364</v>
       </c>
       <c r="J53">
-        <v>0.001350670734569693</v>
+        <v>0.009737882907356806</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         <v>14</v>
       </c>
       <c r="M53">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N53">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2759,10 +2759,10 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.786060736489133</v>
+        <v>0.6155555555555556</v>
       </c>
       <c r="D54">
-        <v>0.03301218713905115</v>
+        <v>0.2561406345962273</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2771,16 +2771,16 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.7117932045203548</v>
+        <v>0.4844222274705148</v>
       </c>
       <c r="H54">
-        <v>0.1163353602298588</v>
+        <v>0.2044318819838949</v>
       </c>
       <c r="I54">
-        <v>0.01485899488116635</v>
+        <v>0.0717390991246848</v>
       </c>
       <c r="J54">
-        <v>0.001378911295596933</v>
+        <v>0.009552651680572469</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         <v>14</v>
       </c>
       <c r="M54">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N54">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2803,10 +2803,10 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.786060736489133</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="D55">
-        <v>0.03301218713905115</v>
+        <v>0.2384686225703861</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2815,16 +2815,16 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.7081003519463339</v>
+        <v>0.4864588882270565</v>
       </c>
       <c r="H55">
-        <v>0.1172365802351286</v>
+        <v>0.2080076726463266</v>
       </c>
       <c r="I55">
-        <v>0.01441196986595316</v>
+        <v>0.06952971237756642</v>
       </c>
       <c r="J55">
-        <v>0.00129385559866186</v>
+        <v>0.008683599746914891</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2833,10 +2833,10 @@
         <v>14</v>
       </c>
       <c r="M55">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N55">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2847,10 +2847,10 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.786060736489133</v>
+        <v>0.5888888888888888</v>
       </c>
       <c r="D56">
-        <v>0.03301218713905115</v>
+        <v>0.2384686225703861</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2859,16 +2859,16 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0.7094593881360958</v>
+        <v>0.4777911386206396</v>
       </c>
       <c r="H56">
-        <v>0.1186160371507258</v>
+        <v>0.2078085566572761</v>
       </c>
       <c r="I56">
-        <v>0.01405973197343021</v>
+        <v>0.06737513140048125</v>
       </c>
       <c r="J56">
-        <v>0.001266905243847863</v>
+        <v>0.008655714520329842</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>14</v>
       </c>
       <c r="M56">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N56">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2891,10 +2891,10 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.7974127178411143</v>
+        <v>0.6155555555555556</v>
       </c>
       <c r="D57">
-        <v>0.04072065118526987</v>
+        <v>0.2561406345962273</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2903,16 +2903,16 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.7104640696444383</v>
+        <v>0.4748953165785636</v>
       </c>
       <c r="H57">
-        <v>0.1207702066097976</v>
+        <v>0.2121327855072055</v>
       </c>
       <c r="I57">
-        <v>0.01368167433023604</v>
+        <v>0.06527756008216287</v>
       </c>
       <c r="J57">
-        <v>0.001223456753517512</v>
+        <v>0.008178368312311305</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>14</v>
       </c>
       <c r="M57">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N57">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2935,10 +2935,10 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.791958172386569</v>
+        <v>0.6538095238095238</v>
       </c>
       <c r="D58">
-        <v>0.04209098054432199</v>
+        <v>0.2243003735983779</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2947,16 +2947,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.7118266058698952</v>
+        <v>0.4706971276013411</v>
       </c>
       <c r="H58">
-        <v>0.1210619033365649</v>
+        <v>0.2153807356061605</v>
       </c>
       <c r="I58">
-        <v>0.01331885019978186</v>
+        <v>0.0626555309922751</v>
       </c>
       <c r="J58">
-        <v>0.001204332895840818</v>
+        <v>0.007932456460448069</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>14</v>
       </c>
       <c r="M58">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N58">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2979,10 +2979,10 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.791958172386569</v>
+        <v>0.6271428571428571</v>
       </c>
       <c r="D59">
-        <v>0.04209098054432199</v>
+        <v>0.2100480454703058</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.7133375522511016</v>
+        <v>0.4705870075632972</v>
       </c>
       <c r="H59">
-        <v>0.1203688413664409</v>
+        <v>0.2192761829359313</v>
       </c>
       <c r="I59">
-        <v>0.01293285683821572</v>
+        <v>0.06096476936205594</v>
       </c>
       <c r="J59">
-        <v>0.001188342822721406</v>
+        <v>0.007941317267182415</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>14</v>
       </c>
       <c r="M59">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N59">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3023,10 +3023,10 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.7915152819436784</v>
+        <v>0.6538095238095238</v>
       </c>
       <c r="D60">
-        <v>0.03250761249143409</v>
+        <v>0.2243003735983779</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.7160297001327222</v>
+        <v>0.4735130672609656</v>
       </c>
       <c r="H60">
-        <v>0.1220926093909721</v>
+        <v>0.2216492479654475</v>
       </c>
       <c r="I60">
-        <v>0.01262498901659737</v>
+        <v>0.0591144874959354</v>
       </c>
       <c r="J60">
-        <v>0.001100120048074903</v>
+        <v>0.008480302360109887</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3053,10 +3053,10 @@
         <v>14</v>
       </c>
       <c r="M60">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N60">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3067,10 +3067,10 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.786060736489133</v>
+        <v>0.6538095238095238</v>
       </c>
       <c r="D61">
-        <v>0.03301218713905115</v>
+        <v>0.2243003735983779</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.7146181074253869</v>
+        <v>0.4750149068471184</v>
       </c>
       <c r="H61">
-        <v>0.1190624276799143</v>
+        <v>0.2231462859209704</v>
       </c>
       <c r="I61">
-        <v>0.01229865204849969</v>
+        <v>0.05748911723420334</v>
       </c>
       <c r="J61">
-        <v>0.0009859296191920993</v>
+        <v>0.008159760876449576</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3097,10 +3097,10 @@
         <v>14</v>
       </c>
       <c r="M61">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N61">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3111,10 +3111,10 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.786060736489133</v>
+        <v>0.6538095238095238</v>
       </c>
       <c r="D62">
-        <v>0.03301218713905115</v>
+        <v>0.2243003735983779</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3123,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.7179818759336748</v>
+        <v>0.4740693179821817</v>
       </c>
       <c r="H62">
-        <v>0.1156270441019324</v>
+        <v>0.2273356305030665</v>
       </c>
       <c r="I62">
-        <v>0.01199827129708501</v>
+        <v>0.05575174993034852</v>
       </c>
       <c r="J62">
-        <v>0.001006029198414016</v>
+        <v>0.007885223305890218</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3141,10 +3141,10 @@
         <v>14</v>
       </c>
       <c r="M62">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N62">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3155,10 +3155,10 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.7803524912460041</v>
+        <v>0.6538095238095238</v>
       </c>
       <c r="D63">
-        <v>0.03798685984936019</v>
+        <v>0.2243003735983779</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.7191283621338109</v>
+        <v>0.474439333732818</v>
       </c>
       <c r="H63">
-        <v>0.1161604643177986</v>
+        <v>0.2324567889041691</v>
       </c>
       <c r="I63">
-        <v>0.011717858281817</v>
+        <v>0.0540706854591486</v>
       </c>
       <c r="J63">
-        <v>0.0009644796045699635</v>
+        <v>0.00739296042353316</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3185,10 +3185,10 @@
         <v>14</v>
       </c>
       <c r="M63">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N63">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3199,10 +3199,10 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.786060736489133</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D64">
-        <v>0.03301218713905115</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3211,16 +3211,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.7175031415781122</v>
+        <v>0.4744902309918063</v>
       </c>
       <c r="H64">
-        <v>0.1228802466845997</v>
+        <v>0.2352290758001928</v>
       </c>
       <c r="I64">
-        <v>0.01138492324285067</v>
+        <v>0.05211680096451715</v>
       </c>
       <c r="J64">
-        <v>0.0009606718626267675</v>
+        <v>0.007108985395761245</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>14</v>
       </c>
       <c r="M64">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N64">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3243,10 +3243,10 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.791958172386569</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D65">
-        <v>0.04209098054432199</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3255,16 +3255,16 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.7162006359134951</v>
+        <v>0.4749679059595824</v>
       </c>
       <c r="H65">
-        <v>0.1208208285097455</v>
+        <v>0.2359829463326583</v>
       </c>
       <c r="I65">
-        <v>0.01118887654264033</v>
+        <v>0.05072666582014747</v>
       </c>
       <c r="J65">
-        <v>0.0009006778434183312</v>
+        <v>0.00747769678265064</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3273,10 +3273,10 @@
         <v>14</v>
       </c>
       <c r="M65">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N65">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3287,10 +3287,10 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.786060736489133</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D66">
-        <v>0.03301218713905115</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3299,16 +3299,16 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.7180194045125795</v>
+        <v>0.4766327173762843</v>
       </c>
       <c r="H66">
-        <v>0.1230488905612853</v>
+        <v>0.2375806605647233</v>
       </c>
       <c r="I66">
-        <v>0.010920373076795</v>
+        <v>0.04946232440631739</v>
       </c>
       <c r="J66">
-        <v>0.0008525259470515408</v>
+        <v>0.007507651972589242</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>14</v>
       </c>
       <c r="M66">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N66">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3331,10 +3331,10 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.786060736489133</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D67">
-        <v>0.03301218713905115</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3343,16 +3343,16 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.7198575481548246</v>
+        <v>0.4770770364691794</v>
       </c>
       <c r="H67">
-        <v>0.1223826454873091</v>
+        <v>0.2398829247464662</v>
       </c>
       <c r="I67">
-        <v>0.01071961821872275</v>
+        <v>0.04816654136246925</v>
       </c>
       <c r="J67">
-        <v>0.0008337118387901538</v>
+        <v>0.007276727435813793</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>14</v>
       </c>
       <c r="M67">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N67">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3375,10 +3375,10 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.7803524912460041</v>
+        <v>0.6226984126984128</v>
       </c>
       <c r="D68">
-        <v>0.03798685984936019</v>
+        <v>0.2435884828032651</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3387,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.7215417277937172</v>
+        <v>0.4769718028038055</v>
       </c>
       <c r="H68">
-        <v>0.1232988577804305</v>
+        <v>0.2423985983556615</v>
       </c>
       <c r="I68">
-        <v>0.01048099412024332</v>
+        <v>0.04643810857630574</v>
       </c>
       <c r="J68">
-        <v>0.00077459436208926</v>
+        <v>0.007151321780969677</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>14</v>
       </c>
       <c r="M68">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N68">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3419,10 +3419,10 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.7803524912460041</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D69">
-        <v>0.03798685984936019</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3431,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.7259958187195046</v>
+        <v>0.4812212841723045</v>
       </c>
       <c r="H69">
-        <v>0.1235516431212081</v>
+        <v>0.2477069593236208</v>
       </c>
       <c r="I69">
-        <v>0.01024168720369005</v>
+        <v>0.04518039097666525</v>
       </c>
       <c r="J69">
-        <v>0.0006556156280737027</v>
+        <v>0.006963997489312981</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>14</v>
       </c>
       <c r="M69">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N69">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3463,10 +3463,10 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.7803524912460041</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D70">
-        <v>0.03798685984936019</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.7281187364241315</v>
+        <v>0.4812884459525952</v>
       </c>
       <c r="H70">
-        <v>0.1239795007767706</v>
+        <v>0.251776896886921</v>
       </c>
       <c r="I70">
-        <v>0.01004215956268914</v>
+        <v>0.04380689265854532</v>
       </c>
       <c r="J70">
-        <v>0.0006598000284307007</v>
+        <v>0.006757301393713636</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>14</v>
       </c>
       <c r="M70">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N70">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3507,10 +3507,10 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.7803524912460041</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D71">
-        <v>0.03798685984936019</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3519,16 +3519,16 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.7307200469196645</v>
+        <v>0.4813226164767369</v>
       </c>
       <c r="H71">
-        <v>0.1225282112745026</v>
+        <v>0.2510193548014956</v>
       </c>
       <c r="I71">
-        <v>0.009841778128196985</v>
+        <v>0.04244425591769074</v>
       </c>
       <c r="J71">
-        <v>0.0006801997341452533</v>
+        <v>0.006505763757095316</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3537,10 +3537,10 @@
         <v>14</v>
       </c>
       <c r="M71">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N71">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3551,10 +3551,10 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.7803524912460041</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D72">
-        <v>0.03798685984936019</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3563,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0.7323359414911768</v>
+        <v>0.4821817298168464</v>
       </c>
       <c r="H72">
-        <v>0.1266142925762682</v>
+        <v>0.2520101737832523</v>
       </c>
       <c r="I72">
-        <v>0.009604373322020217</v>
+        <v>0.04142545700369533</v>
       </c>
       <c r="J72">
-        <v>0.0006868978436973968</v>
+        <v>0.006417575822571117</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         <v>14</v>
       </c>
       <c r="M72">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N72">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3595,10 +3595,10 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.7803524912460041</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D73">
-        <v>0.03798685984936019</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3607,16 +3607,16 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.7316943743191172</v>
+        <v>0.4824286385402383</v>
       </c>
       <c r="H73">
-        <v>0.1256167396298924</v>
+        <v>0.2548544546730987</v>
       </c>
       <c r="I73">
-        <v>0.009425491693036598</v>
+        <v>0.04013490455230707</v>
       </c>
       <c r="J73">
-        <v>0.0006766516061486073</v>
+        <v>0.006292429918984175</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3625,10 +3625,10 @@
         <v>14</v>
       </c>
       <c r="M73">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N73">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3639,10 +3639,10 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.7803524912460041</v>
+        <v>0.6289610389610389</v>
       </c>
       <c r="D74">
-        <v>0.03798685984936019</v>
+        <v>0.2704713438602194</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3651,16 +3651,16 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0.7314592250568379</v>
+        <v>0.4820834260996095</v>
       </c>
       <c r="H74">
-        <v>0.1285708381416377</v>
+        <v>0.2580902074438929</v>
       </c>
       <c r="I74">
-        <v>0.009262085225905079</v>
+        <v>0.03869245849087044</v>
       </c>
       <c r="J74">
-        <v>0.0006281369343248266</v>
+        <v>0.005860383252921337</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>14</v>
       </c>
       <c r="M74">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N74">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3683,10 +3683,10 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.7803524912460041</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D75">
-        <v>0.03798685984936019</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3695,16 +3695,16 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.7320322030896717</v>
+        <v>0.4796492795493227</v>
       </c>
       <c r="H75">
-        <v>0.129368509913176</v>
+        <v>0.2580391161143107</v>
       </c>
       <c r="I75">
-        <v>0.009122525915277204</v>
+        <v>0.03778835076432197</v>
       </c>
       <c r="J75">
-        <v>0.0006206186135302598</v>
+        <v>0.005694620687478331</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3713,10 +3713,10 @@
         <v>14</v>
       </c>
       <c r="M75">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N75">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3727,10 +3727,10 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.7803524912460041</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D76">
-        <v>0.03798685984936019</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3739,16 +3739,16 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0.7316767511048708</v>
+        <v>0.4800373470756535</v>
       </c>
       <c r="H76">
-        <v>0.1275540853193216</v>
+        <v>0.2616198492556888</v>
       </c>
       <c r="I76">
-        <v>0.008969189843372163</v>
+        <v>0.03668714948917538</v>
       </c>
       <c r="J76">
-        <v>0.0006068834678880304</v>
+        <v>0.00554885661674754</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>14</v>
       </c>
       <c r="M76">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N76">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3771,10 +3771,10 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.7803524912460041</v>
+        <v>0.6289610389610389</v>
       </c>
       <c r="D77">
-        <v>0.03798685984936019</v>
+        <v>0.2704713438602194</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3783,16 +3783,16 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0.7340109854000247</v>
+        <v>0.4811088680767283</v>
       </c>
       <c r="H77">
-        <v>0.1277974937150831</v>
+        <v>0.2625840813704417</v>
       </c>
       <c r="I77">
-        <v>0.008850593560883552</v>
+        <v>0.03581123888963705</v>
       </c>
       <c r="J77">
-        <v>0.0006060168327223461</v>
+        <v>0.005420558631116685</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3801,10 +3801,10 @@
         <v>14</v>
       </c>
       <c r="M77">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N77">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3815,10 +3815,10 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.7803524912460041</v>
+        <v>0.6289610389610389</v>
       </c>
       <c r="D78">
-        <v>0.03798685984936019</v>
+        <v>0.2704713438602194</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3827,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0.7352892951911814</v>
+        <v>0.4802974752982102</v>
       </c>
       <c r="H78">
-        <v>0.1284882589271938</v>
+        <v>0.2637772363802232</v>
       </c>
       <c r="I78">
-        <v>0.008717184733652678</v>
+        <v>0.03509743478905965</v>
       </c>
       <c r="J78">
-        <v>0.0005667712991687508</v>
+        <v>0.00548765776113105</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3845,10 +3845,10 @@
         <v>14</v>
       </c>
       <c r="M78">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N78">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3859,10 +3859,10 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.7803524912460041</v>
+        <v>0.6289610389610389</v>
       </c>
       <c r="D79">
-        <v>0.03798685984936019</v>
+        <v>0.2704713438602194</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3871,16 +3871,16 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.7376288889239959</v>
+        <v>0.4813441651984207</v>
       </c>
       <c r="H79">
-        <v>0.1269984401269418</v>
+        <v>0.2673133795746112</v>
       </c>
       <c r="I79">
-        <v>0.008553279254496409</v>
+        <v>0.03438930944070319</v>
       </c>
       <c r="J79">
-        <v>0.0005651975336169386</v>
+        <v>0.005371522914002176</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3889,10 +3889,10 @@
         <v>14</v>
       </c>
       <c r="M79">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N79">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3903,10 +3903,10 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.7803524912460041</v>
+        <v>0.6289610389610389</v>
       </c>
       <c r="D80">
-        <v>0.03798685984936019</v>
+        <v>0.2704713438602194</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3915,16 +3915,16 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.737131314634581</v>
+        <v>0.4814420566575202</v>
       </c>
       <c r="H80">
-        <v>0.1281151570132263</v>
+        <v>0.2685618938147124</v>
       </c>
       <c r="I80">
-        <v>0.008408663128073635</v>
+        <v>0.03371185231960956</v>
       </c>
       <c r="J80">
-        <v>0.0005631266235514792</v>
+        <v>0.0052999365152729</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>14</v>
       </c>
       <c r="M80">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N80">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3947,10 +3947,10 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.7803524912460041</v>
+        <v>0.6289610389610389</v>
       </c>
       <c r="D81">
-        <v>0.03798685984936019</v>
+        <v>0.2704713438602194</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3959,16 +3959,16 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.737457818633762</v>
+        <v>0.481266869860997</v>
       </c>
       <c r="H81">
-        <v>0.1271862165196709</v>
+        <v>0.2701853976663927</v>
       </c>
       <c r="I81">
-        <v>0.008258999004923629</v>
+        <v>0.03272383125383464</v>
       </c>
       <c r="J81">
-        <v>0.0005646768178445566</v>
+        <v>0.005093075869919039</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>14</v>
       </c>
       <c r="M81">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N81">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3991,10 +3991,10 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.7862499271434401</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D82">
-        <v>0.04700008181603711</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4003,16 +4003,16 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0.7391511617625109</v>
+        <v>0.4815166283449046</v>
       </c>
       <c r="H82">
-        <v>0.1261495856017076</v>
+        <v>0.2707661810177033</v>
       </c>
       <c r="I82">
-        <v>0.008133503883645501</v>
+        <v>0.03197000823747671</v>
       </c>
       <c r="J82">
-        <v>0.0006034895156301895</v>
+        <v>0.004868765394856935</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>14</v>
       </c>
       <c r="M82">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N82">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4035,10 +4035,10 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.7803524912460041</v>
+        <v>0.6289610389610389</v>
       </c>
       <c r="D83">
-        <v>0.03798685984936019</v>
+        <v>0.2704713438602194</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4047,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.7391778215834</v>
+        <v>0.483687950807743</v>
       </c>
       <c r="H83">
-        <v>0.1249211815431712</v>
+        <v>0.2720300136025277</v>
       </c>
       <c r="I83">
-        <v>0.00797296376157099</v>
+        <v>0.03156728020563726</v>
       </c>
       <c r="J83">
-        <v>0.0005811182077648642</v>
+        <v>0.004924378870353146</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>14</v>
       </c>
       <c r="M83">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N83">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4079,10 +4079,10 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.7803524912460041</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D84">
-        <v>0.03798685984936019</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4091,16 +4091,16 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.7417254122104462</v>
+        <v>0.4831711468804993</v>
       </c>
       <c r="H84">
-        <v>0.125474465699522</v>
+        <v>0.2737005790676179</v>
       </c>
       <c r="I84">
-        <v>0.007828281589287091</v>
+        <v>0.03085320818775235</v>
       </c>
       <c r="J84">
-        <v>0.0005828467306095835</v>
+        <v>0.004922000890504387</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>14</v>
       </c>
       <c r="M84">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N84">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4123,10 +4123,10 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.7803524912460041</v>
+        <v>0.6378499278499279</v>
       </c>
       <c r="D85">
-        <v>0.03798685984936019</v>
+        <v>0.2616520332233729</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4135,16 +4135,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.7427611023461518</v>
+        <v>0.4833948521338825</v>
       </c>
       <c r="H85">
-        <v>0.1262200223189711</v>
+        <v>0.2750469506547965</v>
       </c>
       <c r="I85">
-        <v>0.007694933910028836</v>
+        <v>0.03004611455174027</v>
       </c>
       <c r="J85">
-        <v>0.0005598598305427885</v>
+        <v>0.004666330367752848</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -4153,10 +4153,10 @@
         <v>14</v>
       </c>
       <c r="M85">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N85">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4167,10 +4167,10 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.7803524912460041</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D86">
-        <v>0.03798685984936019</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0.7435571046541204</v>
+        <v>0.4850378999443443</v>
       </c>
       <c r="H86">
-        <v>0.127378398425809</v>
+        <v>0.2765432912633308</v>
       </c>
       <c r="I86">
-        <v>0.007572642627408287</v>
+        <v>0.02930957101070687</v>
       </c>
       <c r="J86">
-        <v>0.0005107672850677393</v>
+        <v>0.004386612222200413</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>14</v>
       </c>
       <c r="M86">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N86">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4211,10 +4211,10 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.791958172386569</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D87">
-        <v>0.04209098054432199</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4223,16 +4223,16 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.7456685462226231</v>
+        <v>0.4855359001676922</v>
       </c>
       <c r="H87">
-        <v>0.1278812130674504</v>
+        <v>0.2785681364320529</v>
       </c>
       <c r="I87">
-        <v>0.007445962606197951</v>
+        <v>0.02862083236431982</v>
       </c>
       <c r="J87">
-        <v>0.0004558740780040705</v>
+        <v>0.004312716455796349</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4241,10 +4241,10 @@
         <v>14</v>
       </c>
       <c r="M87">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N87">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4255,10 +4255,10 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.7862499271434401</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D88">
-        <v>0.04700008181603711</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4267,16 +4267,16 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.7456309847853222</v>
+        <v>0.4860796643123117</v>
       </c>
       <c r="H88">
-        <v>0.126532794723072</v>
+        <v>0.2803807344343267</v>
       </c>
       <c r="I88">
-        <v>0.00734379237349179</v>
+        <v>0.02779645128495112</v>
       </c>
       <c r="J88">
-        <v>0.0004699564829923336</v>
+        <v>0.004099243166612438</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4285,10 +4285,10 @@
         <v>14</v>
       </c>
       <c r="M88">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N88">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4299,10 +4299,10 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D89">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4311,16 +4311,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.7476600841710882</v>
+        <v>0.4900747706481832</v>
       </c>
       <c r="H89">
-        <v>0.1280551884076504</v>
+        <v>0.2828671917305998</v>
       </c>
       <c r="I89">
-        <v>0.007230502188640235</v>
+        <v>0.02705729590047714</v>
       </c>
       <c r="J89">
-        <v>0.0004493806477685317</v>
+        <v>0.003980409101078577</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -4329,10 +4329,10 @@
         <v>14</v>
       </c>
       <c r="M89">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N89">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4343,10 +4343,10 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.7862499271434401</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D90">
-        <v>0.04700008181603711</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4355,16 +4355,16 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.7475147382698064</v>
+        <v>0.4898199762604548</v>
       </c>
       <c r="H90">
-        <v>0.1268202454841496</v>
+        <v>0.2837721146453373</v>
       </c>
       <c r="I90">
-        <v>0.007121241741784204</v>
+        <v>0.02653284390265957</v>
       </c>
       <c r="J90">
-        <v>0.0004358830591252847</v>
+        <v>0.003850492008695363</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4373,10 +4373,10 @@
         <v>14</v>
       </c>
       <c r="M90">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N90">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4387,10 +4387,10 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.7862499271434401</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D91">
-        <v>0.04700008181603711</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4399,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.7497166459361534</v>
+        <v>0.4910093561125304</v>
       </c>
       <c r="H91">
-        <v>0.1274564170021332</v>
+        <v>0.2841311408916453</v>
       </c>
       <c r="I91">
-        <v>0.007003925294257728</v>
+        <v>0.02605275373258829</v>
       </c>
       <c r="J91">
-        <v>0.0004526475766157548</v>
+        <v>0.003771143645374459</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>14</v>
       </c>
       <c r="M91">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N91">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4431,10 +4431,10 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.7862499271434401</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D92">
-        <v>0.04700008181603711</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4443,16 +4443,16 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0.7519156226511516</v>
+        <v>0.4917928063542186</v>
       </c>
       <c r="H92">
-        <v>0.1264278626725284</v>
+        <v>0.285085790647196</v>
       </c>
       <c r="I92">
-        <v>0.006901401063436599</v>
+        <v>0.02547012770529914</v>
       </c>
       <c r="J92">
-        <v>0.000443700494579659</v>
+        <v>0.0038091610247247</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4461,10 +4461,10 @@
         <v>14</v>
       </c>
       <c r="M92">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N92">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4475,10 +4475,10 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.7862499271434401</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D93">
-        <v>0.04700008181603711</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4487,16 +4487,16 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.7519717234461958</v>
+        <v>0.492285589385978</v>
       </c>
       <c r="H93">
-        <v>0.1278398454524457</v>
+        <v>0.2867227675351623</v>
       </c>
       <c r="I93">
-        <v>0.006811260686490938</v>
+        <v>0.02484324481577502</v>
       </c>
       <c r="J93">
-        <v>0.0004391023952360042</v>
+        <v>0.003572526412981816</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>14</v>
       </c>
       <c r="M93">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N93">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4519,10 +4519,10 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.7862499271434401</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D94">
-        <v>0.04700008181603711</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4531,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.7539321061205755</v>
+        <v>0.4941301015094672</v>
       </c>
       <c r="H94">
-        <v>0.1294093093319001</v>
+        <v>0.2885007018934912</v>
       </c>
       <c r="I94">
-        <v>0.006700543921618523</v>
+        <v>0.02447418688068564</v>
       </c>
       <c r="J94">
-        <v>0.0004486769287623863</v>
+        <v>0.003551060283802914</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -4549,10 +4549,10 @@
         <v>14</v>
       </c>
       <c r="M94">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N94">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4563,10 +4563,10 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.7862499271434401</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D95">
-        <v>0.04700008181603711</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -4575,16 +4575,16 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.7546539160589304</v>
+        <v>0.4942521175263071</v>
       </c>
       <c r="H95">
-        <v>0.1299888499113629</v>
+        <v>0.2896357772930206</v>
       </c>
       <c r="I95">
-        <v>0.006604938579376694</v>
+        <v>0.02406415503237724</v>
       </c>
       <c r="J95">
-        <v>0.0004257327465723583</v>
+        <v>0.003505617781949356</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -4593,10 +4593,10 @@
         <v>14</v>
       </c>
       <c r="M95">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N95">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4607,10 +4607,10 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.7862499271434401</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D96">
-        <v>0.04700008181603711</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4619,16 +4619,16 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.7556460865144459</v>
+        <v>0.4936185018038529</v>
       </c>
       <c r="H96">
-        <v>0.1285059126093063</v>
+        <v>0.2916933794444333</v>
       </c>
       <c r="I96">
-        <v>0.006524766112595208</v>
+        <v>0.02358319122960023</v>
       </c>
       <c r="J96">
-        <v>0.0004319875957886438</v>
+        <v>0.003390815094374125</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -4637,10 +4637,10 @@
         <v>14</v>
       </c>
       <c r="M96">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N96">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4651,10 +4651,10 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.7862499271434401</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D97">
-        <v>0.04700008181603711</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4663,16 +4663,16 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.753302293548017</v>
+        <v>0.495027443500333</v>
       </c>
       <c r="H97">
-        <v>0.1316315084445391</v>
+        <v>0.2923794163230498</v>
       </c>
       <c r="I97">
-        <v>0.006410324595256908</v>
+        <v>0.02313024398949802</v>
       </c>
       <c r="J97">
-        <v>0.0004030967774790822</v>
+        <v>0.003286649415512434</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -4681,10 +4681,10 @@
         <v>14</v>
       </c>
       <c r="M97">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N97">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4695,10 +4695,10 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.7862499271434401</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D98">
-        <v>0.04700008181603711</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -4707,16 +4707,16 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.7536250527445045</v>
+        <v>0.4959947315044176</v>
       </c>
       <c r="H98">
-        <v>0.1303613706667781</v>
+        <v>0.2947393755841252</v>
       </c>
       <c r="I98">
-        <v>0.006326238869363889</v>
+        <v>0.02273880828779508</v>
       </c>
       <c r="J98">
-        <v>0.0004106954563846588</v>
+        <v>0.0032153327907898</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>14</v>
       </c>
       <c r="M98">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N98">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4739,10 +4739,10 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.7862499271434401</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D99">
-        <v>0.04700008181603711</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -4751,16 +4751,16 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0.7538654936199056</v>
+        <v>0.4962960304745002</v>
       </c>
       <c r="H99">
-        <v>0.1296124891623096</v>
+        <v>0.295872421715216</v>
       </c>
       <c r="I99">
-        <v>0.006237271253540346</v>
+        <v>0.02230240440078896</v>
       </c>
       <c r="J99">
-        <v>0.0004135126161140602</v>
+        <v>0.00311587237399302</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -4769,10 +4769,10 @@
         <v>14</v>
       </c>
       <c r="M99">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N99">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4783,10 +4783,10 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.7862499271434401</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D100">
-        <v>0.04700008181603711</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4795,16 +4795,16 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.7547075971257727</v>
+        <v>0.495705998657679</v>
       </c>
       <c r="H100">
-        <v>0.1296227503557551</v>
+        <v>0.2961919168648263</v>
       </c>
       <c r="I100">
-        <v>0.00615773430268923</v>
+        <v>0.02193466643632615</v>
       </c>
       <c r="J100">
-        <v>0.0003947668925089981</v>
+        <v>0.002971730129113953</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4813,10 +4813,10 @@
         <v>14</v>
       </c>
       <c r="M100">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N100">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4827,10 +4827,10 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>0.7821035856800254</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D101">
-        <v>0.04042455321235098</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -4839,16 +4839,16 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.7542309908051708</v>
+        <v>0.4976826162203567</v>
       </c>
       <c r="H101">
-        <v>0.1302077259921256</v>
+        <v>0.2973156256513417</v>
       </c>
       <c r="I101">
-        <v>0.00607341729494682</v>
+        <v>0.02149939802787345</v>
       </c>
       <c r="J101">
-        <v>0.0003979215813352828</v>
+        <v>0.002886446078860717</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -4857,10 +4857,10 @@
         <v>14</v>
       </c>
       <c r="M101">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N101">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4871,10 +4871,10 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>0.7821035856800254</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D102">
-        <v>0.04042455321235098</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4883,16 +4883,16 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.7562306131620437</v>
+        <v>0.4974272108616689</v>
       </c>
       <c r="H102">
-        <v>0.130207947574508</v>
+        <v>0.2986463977767471</v>
       </c>
       <c r="I102">
-        <v>0.00602416937950559</v>
+        <v>0.02113339589290974</v>
       </c>
       <c r="J102">
-        <v>0.000392582897821303</v>
+        <v>0.002967444711350907</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4901,10 +4901,10 @@
         <v>14</v>
       </c>
       <c r="M102">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N102">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4915,10 +4915,10 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D103">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4927,16 +4927,16 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.7568433080746755</v>
+        <v>0.4988461474481174</v>
       </c>
       <c r="H103">
-        <v>0.1313153254373326</v>
+        <v>0.2999112828674462</v>
       </c>
       <c r="I103">
-        <v>0.00597084436292842</v>
+        <v>0.02072655284549786</v>
       </c>
       <c r="J103">
-        <v>0.0004135338499800189</v>
+        <v>0.002771539334434958</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4945,10 +4945,10 @@
         <v>14</v>
       </c>
       <c r="M103">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N103">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4959,10 +4959,10 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>0.7821035856800254</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D104">
-        <v>0.04042455321235098</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -4971,16 +4971,16 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.7567999690924838</v>
+        <v>0.4984549001167631</v>
       </c>
       <c r="H104">
-        <v>0.1317176977383855</v>
+        <v>0.3004542860514671</v>
       </c>
       <c r="I104">
-        <v>0.005879333667334485</v>
+        <v>0.02041870143666336</v>
       </c>
       <c r="J104">
-        <v>0.0003789980364681045</v>
+        <v>0.002665213659351683</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4989,10 +4989,10 @@
         <v>14</v>
       </c>
       <c r="M104">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N104">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5003,10 +5003,10 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>0.7821035856800254</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D105">
-        <v>0.04042455321235098</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5015,16 +5015,16 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.7589134281969684</v>
+        <v>0.4980010802536526</v>
       </c>
       <c r="H105">
-        <v>0.1333672666406566</v>
+        <v>0.3008667274571415</v>
       </c>
       <c r="I105">
-        <v>0.005797922048894321</v>
+        <v>0.02011469781512886</v>
       </c>
       <c r="J105">
-        <v>0.0003771235937797882</v>
+        <v>0.002484276854777014</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -5033,10 +5033,10 @@
         <v>14</v>
       </c>
       <c r="M105">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N105">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5047,10 +5047,10 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>0.7821035856800254</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D106">
-        <v>0.04042455321235098</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5059,16 +5059,16 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0.7597667614653382</v>
+        <v>0.4971785768458029</v>
       </c>
       <c r="H106">
-        <v>0.1338555096637833</v>
+        <v>0.3027296894573582</v>
       </c>
       <c r="I106">
-        <v>0.005717697048381333</v>
+        <v>0.01978786756707146</v>
       </c>
       <c r="J106">
-        <v>0.0003636911189355735</v>
+        <v>0.002270478301277794</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -5077,10 +5077,10 @@
         <v>14</v>
       </c>
       <c r="M106">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N106">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5091,10 +5091,10 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>0.7821035856800254</v>
+        <v>0.6556277056277057</v>
       </c>
       <c r="D107">
-        <v>0.04042455321235098</v>
+        <v>0.277936509434874</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5103,16 +5103,16 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.759952507554883</v>
+        <v>0.4970746843901239</v>
       </c>
       <c r="H107">
-        <v>0.1352741269126985</v>
+        <v>0.3034137787144856</v>
       </c>
       <c r="I107">
-        <v>0.005655166764292335</v>
+        <v>0.01951138972440581</v>
       </c>
       <c r="J107">
-        <v>0.0003769780704005812</v>
+        <v>0.002141691560936779</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>14</v>
       </c>
       <c r="M107">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N107">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5135,10 +5135,10 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D108">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5147,16 +5147,16 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.7595651735813785</v>
+        <v>0.4980338142553657</v>
       </c>
       <c r="H108">
-        <v>0.135050991967392</v>
+        <v>0.3036179594464035</v>
       </c>
       <c r="I108">
-        <v>0.005578767040289887</v>
+        <v>0.01916362116557354</v>
       </c>
       <c r="J108">
-        <v>0.0003588020083533328</v>
+        <v>0.002019766255653114</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -5165,10 +5165,10 @@
         <v>14</v>
       </c>
       <c r="M108">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N108">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5179,10 +5179,10 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D109">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5191,16 +5191,16 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.7610279224497066</v>
+        <v>0.4989212248761959</v>
       </c>
       <c r="H109">
-        <v>0.1355888341259441</v>
+        <v>0.3039272169223729</v>
       </c>
       <c r="I109">
-        <v>0.005512085496580865</v>
+        <v>0.01892543845648978</v>
       </c>
       <c r="J109">
-        <v>0.0003929189954114645</v>
+        <v>0.001879980385224718</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -5209,10 +5209,10 @@
         <v>14</v>
       </c>
       <c r="M109">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N109">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5223,10 +5223,10 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>0.7862499271434401</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D110">
-        <v>0.04700008181603711</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5235,16 +5235,16 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0.7610643523624336</v>
+        <v>0.500037817970247</v>
       </c>
       <c r="H110">
-        <v>0.1363163638598266</v>
+        <v>0.3044691205424901</v>
       </c>
       <c r="I110">
-        <v>0.005471763021118481</v>
+        <v>0.01866329561325389</v>
       </c>
       <c r="J110">
-        <v>0.0004130602652790524</v>
+        <v>0.001716565601453941</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -5253,10 +5253,10 @@
         <v>14</v>
       </c>
       <c r="M110">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N110">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5267,10 +5267,10 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>0.7862499271434401</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D111">
-        <v>0.04700008181603711</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5279,16 +5279,16 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0.7614540965461789</v>
+        <v>0.5000090123652445</v>
       </c>
       <c r="H111">
-        <v>0.1377613702476524</v>
+        <v>0.3046373714207536</v>
       </c>
       <c r="I111">
-        <v>0.005434245945680946</v>
+        <v>0.01849489760488012</v>
       </c>
       <c r="J111">
-        <v>0.0004295570718870086</v>
+        <v>0.001600421849793662</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -5297,10 +5297,10 @@
         <v>14</v>
       </c>
       <c r="M111">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N111">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5311,10 +5311,10 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>0.7862499271434401</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D112">
-        <v>0.04700008181603711</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5323,16 +5323,16 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.7631588137874085</v>
+        <v>0.4993471038168462</v>
       </c>
       <c r="H112">
-        <v>0.1381233293506899</v>
+        <v>0.3050858135492527</v>
       </c>
       <c r="I112">
-        <v>0.005381449770830641</v>
+        <v>0.01822723688783403</v>
       </c>
       <c r="J112">
-        <v>0.0004554012867364891</v>
+        <v>0.001436846626985684</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -5341,10 +5341,10 @@
         <v>14</v>
       </c>
       <c r="M112">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N112">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5355,10 +5355,10 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D113">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5367,16 +5367,16 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.7638614384160543</v>
+        <v>0.4987379630927247</v>
       </c>
       <c r="H113">
-        <v>0.1390897408469673</v>
+        <v>0.3042702173909935</v>
       </c>
       <c r="I113">
-        <v>0.005332205422921688</v>
+        <v>0.01805031270037826</v>
       </c>
       <c r="J113">
-        <v>0.0004766174905301187</v>
+        <v>0.00136069926891368</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -5385,10 +5385,10 @@
         <v>14</v>
       </c>
       <c r="M113">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N113">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5399,10 +5399,10 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D114">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5411,16 +5411,16 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0.763694642646759</v>
+        <v>0.4998475751959068</v>
       </c>
       <c r="H114">
-        <v>0.1389519031598661</v>
+        <v>0.3050623452227615</v>
       </c>
       <c r="I114">
-        <v>0.005291967923832332</v>
+        <v>0.01782913464938825</v>
       </c>
       <c r="J114">
-        <v>0.000498319070693889</v>
+        <v>0.001247596198371166</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5429,10 +5429,10 @@
         <v>14</v>
       </c>
       <c r="M114">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N114">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5443,10 +5443,10 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D115">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5455,16 +5455,16 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.7641153138570667</v>
+        <v>0.5017748387013651</v>
       </c>
       <c r="H115">
-        <v>0.13785646538718</v>
+        <v>0.3054831644655255</v>
       </c>
       <c r="I115">
-        <v>0.005268497604762162</v>
+        <v>0.01761716114090556</v>
       </c>
       <c r="J115">
-        <v>0.0005130391937282226</v>
+        <v>0.001197605332487361</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>14</v>
       </c>
       <c r="M115">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N115">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5487,10 +5487,10 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D116">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0.7656836040550092</v>
+        <v>0.5008672114410595</v>
       </c>
       <c r="H116">
-        <v>0.1393900728616585</v>
+        <v>0.3054454599758946</v>
       </c>
       <c r="I116">
-        <v>0.005228436474932908</v>
+        <v>0.01750270287212446</v>
       </c>
       <c r="J116">
-        <v>0.0005416708526265896</v>
+        <v>0.001146637385023395</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5517,10 +5517,10 @@
         <v>14</v>
       </c>
       <c r="M116">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N116">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5531,10 +5531,10 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D117">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5543,16 +5543,16 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0.7657955859088661</v>
+        <v>0.5016601123258984</v>
       </c>
       <c r="H117">
-        <v>0.1391809387935889</v>
+        <v>0.3053940580553062</v>
       </c>
       <c r="I117">
-        <v>0.005195494704954883</v>
+        <v>0.01731442124476297</v>
       </c>
       <c r="J117">
-        <v>0.0005670305535671902</v>
+        <v>0.001107204512965335</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5561,10 +5561,10 @@
         <v>14</v>
       </c>
       <c r="M117">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N117">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5575,10 +5575,10 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D118">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5587,16 +5587,16 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.7662387333594711</v>
+        <v>0.5021814019613886</v>
       </c>
       <c r="H118">
-        <v>0.1407051250835766</v>
+        <v>0.3054621564478927</v>
       </c>
       <c r="I118">
-        <v>0.005168420421847244</v>
+        <v>0.01715308049571672</v>
       </c>
       <c r="J118">
-        <v>0.0005876149182600214</v>
+        <v>0.001103458975501998</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5605,10 +5605,10 @@
         <v>14</v>
       </c>
       <c r="M118">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N118">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5619,10 +5619,10 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D119">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5631,16 +5631,16 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0.7667751245036757</v>
+        <v>0.5020232722863671</v>
       </c>
       <c r="H119">
-        <v>0.141270889345364</v>
+        <v>0.3050560184477171</v>
       </c>
       <c r="I119">
-        <v>0.005147060448270013</v>
+        <v>0.01695924316251806</v>
       </c>
       <c r="J119">
-        <v>0.0006083526703797871</v>
+        <v>0.0009960746294544582</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5649,10 +5649,10 @@
         <v>14</v>
       </c>
       <c r="M119">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N119">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5663,10 +5663,10 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D120">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5675,16 +5675,16 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>0.7672310625436786</v>
+        <v>0.5017221585714075</v>
       </c>
       <c r="H120">
-        <v>0.1416711265717563</v>
+        <v>0.3049607689130034</v>
       </c>
       <c r="I120">
-        <v>0.005130643725068216</v>
+        <v>0.01682560769632363</v>
       </c>
       <c r="J120">
-        <v>0.000623723325966097</v>
+        <v>0.0009434984003745878</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -5693,10 +5693,10 @@
         <v>14</v>
       </c>
       <c r="M120">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N120">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5707,10 +5707,10 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D121">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5719,16 +5719,16 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>0.7672957008402478</v>
+        <v>0.502424076833618</v>
       </c>
       <c r="H121">
-        <v>0.1417522178864305</v>
+        <v>0.3051435672865128</v>
       </c>
       <c r="I121">
-        <v>0.005113720382302771</v>
+        <v>0.01665039183379108</v>
       </c>
       <c r="J121">
-        <v>0.0006400597460197604</v>
+        <v>0.0008699571651263856</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -5737,10 +5737,10 @@
         <v>14</v>
       </c>
       <c r="M121">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N121">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5751,10 +5751,10 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D122">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5763,16 +5763,16 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>0.7684538187707624</v>
+        <v>0.5034706069091867</v>
       </c>
       <c r="H122">
-        <v>0.1428571220673629</v>
+        <v>0.305590387890296</v>
       </c>
       <c r="I122">
-        <v>0.005092141214509629</v>
+        <v>0.01651807917094646</v>
       </c>
       <c r="J122">
-        <v>0.0006619584874471191</v>
+        <v>0.0009196343827833598</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -5781,10 +5781,10 @@
         <v>14</v>
       </c>
       <c r="M122">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N122">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5795,10 +5795,10 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D123">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5807,16 +5807,16 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0.7686772564963459</v>
+        <v>0.5039871285312939</v>
       </c>
       <c r="H123">
-        <v>0.1432468725567808</v>
+        <v>0.3060648790595984</v>
       </c>
       <c r="I123">
-        <v>0.005081961453608586</v>
+        <v>0.01633958687447145</v>
       </c>
       <c r="J123">
-        <v>0.0006709896797366424</v>
+        <v>0.0008555942244786146</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -5825,10 +5825,10 @@
         <v>14</v>
       </c>
       <c r="M123">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N123">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5839,10 +5839,10 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D124">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5851,16 +5851,16 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>0.768994227176963</v>
+        <v>0.5040819126968289</v>
       </c>
       <c r="H124">
-        <v>0.1438009417091776</v>
+        <v>0.3059537145894575</v>
       </c>
       <c r="I124">
-        <v>0.005070854578089035</v>
+        <v>0.01621215752385536</v>
       </c>
       <c r="J124">
-        <v>0.0006815744744364977</v>
+        <v>0.0007641172571600732</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -5869,10 +5869,10 @@
         <v>14</v>
       </c>
       <c r="M124">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N124">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5883,10 +5883,10 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>0.7821035856800254</v>
+        <v>0.6467388167388167</v>
       </c>
       <c r="D125">
-        <v>0.04042455321235098</v>
+        <v>0.2869437686461668</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -5895,16 +5895,16 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>0.7694425021753245</v>
+        <v>0.5044175969097056</v>
       </c>
       <c r="H125">
-        <v>0.1445868393073016</v>
+        <v>0.3059179447876849</v>
       </c>
       <c r="I125">
-        <v>0.005062219785368136</v>
+        <v>0.01610865681911307</v>
       </c>
       <c r="J125">
-        <v>0.0006903087878034649</v>
+        <v>0.0006959457662224441</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -5913,10 +5913,2210 @@
         <v>14</v>
       </c>
       <c r="M125">
-        <v>0.7375167464114832</v>
+        <v>0.8572222222222221</v>
       </c>
       <c r="N125">
-        <v>0.04971508853155982</v>
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>124</v>
+      </c>
+      <c r="C126">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D126">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0.5043689834605174</v>
+      </c>
+      <c r="H126">
+        <v>0.3058215355503712</v>
+      </c>
+      <c r="I126">
+        <v>0.016008338355173</v>
+      </c>
+      <c r="J126">
+        <v>0.000629322351021212</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>14</v>
+      </c>
+      <c r="M126">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N126">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="C127">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D127">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0.5044569944855735</v>
+      </c>
+      <c r="H127">
+        <v>0.3059593187554064</v>
+      </c>
+      <c r="I127">
+        <v>0.01592263206612075</v>
+      </c>
+      <c r="J127">
+        <v>0.0005862787816179745</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>14</v>
+      </c>
+      <c r="M127">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N127">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>126</v>
+      </c>
+      <c r="C128">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D128">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0.5050888518226786</v>
+      </c>
+      <c r="H128">
+        <v>0.3060474565064877</v>
+      </c>
+      <c r="I128">
+        <v>0.01577731427512894</v>
+      </c>
+      <c r="J128">
+        <v>0.0005216710167472578</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128" t="s">
+        <v>14</v>
+      </c>
+      <c r="M128">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N128">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>127</v>
+      </c>
+      <c r="C129">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D129">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0.5050015467735165</v>
+      </c>
+      <c r="H129">
+        <v>0.3061579902852875</v>
+      </c>
+      <c r="I129">
+        <v>0.01570987411210922</v>
+      </c>
+      <c r="J129">
+        <v>0.000500788686362656</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129" t="s">
+        <v>14</v>
+      </c>
+      <c r="M129">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N129">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>128</v>
+      </c>
+      <c r="C130">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D130">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0.5052513803247712</v>
+      </c>
+      <c r="H130">
+        <v>0.3058566560519832</v>
+      </c>
+      <c r="I130">
+        <v>0.01561839923005641</v>
+      </c>
+      <c r="J130">
+        <v>0.0005179823518579223</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130" t="s">
+        <v>14</v>
+      </c>
+      <c r="M130">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N130">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>129</v>
+      </c>
+      <c r="C131">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D131">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0.5049709730293234</v>
+      </c>
+      <c r="H131">
+        <v>0.3062007257132874</v>
+      </c>
+      <c r="I131">
+        <v>0.01552006245568335</v>
+      </c>
+      <c r="J131">
+        <v>0.000539675356672839</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>14</v>
+      </c>
+      <c r="M131">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N131">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>130</v>
+      </c>
+      <c r="C132">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D132">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0.5051619814441576</v>
+      </c>
+      <c r="H132">
+        <v>0.3059607546766664</v>
+      </c>
+      <c r="I132">
+        <v>0.01544518765651838</v>
+      </c>
+      <c r="J132">
+        <v>0.0005884934148848808</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132" t="s">
+        <v>14</v>
+      </c>
+      <c r="M132">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N132">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>131</v>
+      </c>
+      <c r="C133">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D133">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0.5051000894838977</v>
+      </c>
+      <c r="H133">
+        <v>0.3060549785804112</v>
+      </c>
+      <c r="I133">
+        <v>0.01539054903792296</v>
+      </c>
+      <c r="J133">
+        <v>0.0006341824087386478</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133" t="s">
+        <v>14</v>
+      </c>
+      <c r="M133">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N133">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>132</v>
+      </c>
+      <c r="C134">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D134">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0.5050412620641834</v>
+      </c>
+      <c r="H134">
+        <v>0.3061444049596486</v>
+      </c>
+      <c r="I134">
+        <v>0.01534436162522774</v>
+      </c>
+      <c r="J134">
+        <v>0.0006647603394595707</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134" t="s">
+        <v>14</v>
+      </c>
+      <c r="M134">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N134">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>133</v>
+      </c>
+      <c r="C135">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D135">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0.5046515698181164</v>
+      </c>
+      <c r="H135">
+        <v>0.3066540991278443</v>
+      </c>
+      <c r="I135">
+        <v>0.01529552932274447</v>
+      </c>
+      <c r="J135">
+        <v>0.0007144124921461767</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135" t="s">
+        <v>14</v>
+      </c>
+      <c r="M135">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N135">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>134</v>
+      </c>
+      <c r="C136">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D136">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0.5045397406326441</v>
+      </c>
+      <c r="H136">
+        <v>0.3068017231669219</v>
+      </c>
+      <c r="I136">
+        <v>0.01523779026230608</v>
+      </c>
+      <c r="J136">
+        <v>0.0007714825770104151</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>14</v>
+      </c>
+      <c r="M136">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N136">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>135</v>
+      </c>
+      <c r="C137">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D137">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0.5048018902802885</v>
+      </c>
+      <c r="H137">
+        <v>0.3064813183191122</v>
+      </c>
+      <c r="I137">
+        <v>0.01516460032339872</v>
+      </c>
+      <c r="J137">
+        <v>0.0008510100461319463</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137" t="s">
+        <v>14</v>
+      </c>
+      <c r="M137">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N137">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>136</v>
+      </c>
+      <c r="C138">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D138">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0.5049003202559076</v>
+      </c>
+      <c r="H138">
+        <v>0.306381299746644</v>
+      </c>
+      <c r="I138">
+        <v>0.01510726779763902</v>
+      </c>
+      <c r="J138">
+        <v>0.0009137235596019975</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138" t="s">
+        <v>14</v>
+      </c>
+      <c r="M138">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N138">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>137</v>
+      </c>
+      <c r="C139">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D139">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0.5049453180744323</v>
+      </c>
+      <c r="H139">
+        <v>0.3063313921457771</v>
+      </c>
+      <c r="I139">
+        <v>0.01507382752254403</v>
+      </c>
+      <c r="J139">
+        <v>0.0009488698119403338</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139" t="s">
+        <v>14</v>
+      </c>
+      <c r="M139">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N139">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>138</v>
+      </c>
+      <c r="C140">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D140">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0.5051725035165944</v>
+      </c>
+      <c r="H140">
+        <v>0.3060566465675894</v>
+      </c>
+      <c r="I140">
+        <v>0.01500012845048462</v>
+      </c>
+      <c r="J140">
+        <v>0.001042607549968506</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140" t="s">
+        <v>14</v>
+      </c>
+      <c r="M140">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N140">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>139</v>
+      </c>
+      <c r="C141">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D141">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0.5053285050339822</v>
+      </c>
+      <c r="H141">
+        <v>0.3058381213694285</v>
+      </c>
+      <c r="I141">
+        <v>0.01493548198147616</v>
+      </c>
+      <c r="J141">
+        <v>0.001124569385605125</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141" t="s">
+        <v>14</v>
+      </c>
+      <c r="M141">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N141">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>140</v>
+      </c>
+      <c r="C142">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D142">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0.5052294153712864</v>
+      </c>
+      <c r="H142">
+        <v>0.3059370934908401</v>
+      </c>
+      <c r="I142">
+        <v>0.01485972520605961</v>
+      </c>
+      <c r="J142">
+        <v>0.001217984060604995</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142" t="s">
+        <v>14</v>
+      </c>
+      <c r="M142">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N142">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>141</v>
+      </c>
+      <c r="C143">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D143">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0.5052504930042488</v>
+      </c>
+      <c r="H143">
+        <v>0.3059157279865615</v>
+      </c>
+      <c r="I143">
+        <v>0.01481863421490258</v>
+      </c>
+      <c r="J143">
+        <v>0.001266546757009264</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143" t="s">
+        <v>14</v>
+      </c>
+      <c r="M143">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N143">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>142</v>
+      </c>
+      <c r="C144">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D144">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0.5053440822612547</v>
+      </c>
+      <c r="H144">
+        <v>0.3058124200749504</v>
+      </c>
+      <c r="I144">
+        <v>0.01477410152554986</v>
+      </c>
+      <c r="J144">
+        <v>0.001319622812977154</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N144">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>143</v>
+      </c>
+      <c r="C145">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D145">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0.5054106472374345</v>
+      </c>
+      <c r="H145">
+        <v>0.3057374024099217</v>
+      </c>
+      <c r="I145">
+        <v>0.01476010582712832</v>
+      </c>
+      <c r="J145">
+        <v>0.001335364180027093</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>14</v>
+      </c>
+      <c r="M145">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N145">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>144</v>
+      </c>
+      <c r="C146">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D146">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0.5055662045024252</v>
+      </c>
+      <c r="H146">
+        <v>0.3055623027441678</v>
+      </c>
+      <c r="I146">
+        <v>0.01473220117665922</v>
+      </c>
+      <c r="J146">
+        <v>0.001368346001167844</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146" t="s">
+        <v>14</v>
+      </c>
+      <c r="M146">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N146">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>145</v>
+      </c>
+      <c r="C147">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D147">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0.5056224012254221</v>
+      </c>
+      <c r="H147">
+        <v>0.305499118823858</v>
+      </c>
+      <c r="I147">
+        <v>0.01470855747435678</v>
+      </c>
+      <c r="J147">
+        <v>0.001397863214773996</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147" t="s">
+        <v>14</v>
+      </c>
+      <c r="M147">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N147">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>146</v>
+      </c>
+      <c r="C148">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D148">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0.5057234349187274</v>
+      </c>
+      <c r="H148">
+        <v>0.3053856203127092</v>
+      </c>
+      <c r="I148">
+        <v>0.0146923246863586</v>
+      </c>
+      <c r="J148">
+        <v>0.001418913723281368</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148" t="s">
+        <v>14</v>
+      </c>
+      <c r="M148">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N148">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>147</v>
+      </c>
+      <c r="C149">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D149">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0.5056891235190736</v>
+      </c>
+      <c r="H149">
+        <v>0.305424150799208</v>
+      </c>
+      <c r="I149">
+        <v>0.01465557514740168</v>
+      </c>
+      <c r="J149">
+        <v>0.001468771263830943</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149" t="s">
+        <v>14</v>
+      </c>
+      <c r="M149">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N149">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>148</v>
+      </c>
+      <c r="C150">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D150">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0.5053014130224991</v>
+      </c>
+      <c r="H150">
+        <v>0.3058605360451604</v>
+      </c>
+      <c r="I150">
+        <v>0.01463015655216474</v>
+      </c>
+      <c r="J150">
+        <v>0.001504915957006582</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150" t="s">
+        <v>14</v>
+      </c>
+      <c r="M150">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N150">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>149</v>
+      </c>
+      <c r="C151">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D151">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0.5053578873692874</v>
+      </c>
+      <c r="H151">
+        <v>0.3057968574966828</v>
+      </c>
+      <c r="I151">
+        <v>0.01460901268910056</v>
+      </c>
+      <c r="J151">
+        <v>0.001535936787426364</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151" t="s">
+        <v>14</v>
+      </c>
+      <c r="M151">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N151">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>150</v>
+      </c>
+      <c r="C152">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D152">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0.5054532504413192</v>
+      </c>
+      <c r="H152">
+        <v>0.3056894176539221</v>
+      </c>
+      <c r="I152">
+        <v>0.01459393808709735</v>
+      </c>
+      <c r="J152">
+        <v>0.001558552053317321</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152" t="s">
+        <v>14</v>
+      </c>
+      <c r="M152">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N152">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>151</v>
+      </c>
+      <c r="C153">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D153">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0.5055632621428574</v>
+      </c>
+      <c r="H153">
+        <v>0.3055656120045691</v>
+      </c>
+      <c r="I153">
+        <v>0.01456774364393107</v>
+      </c>
+      <c r="J153">
+        <v>0.001598779316240638</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153" t="s">
+        <v>14</v>
+      </c>
+      <c r="M153">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N153">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>152</v>
+      </c>
+      <c r="C154">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D154">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0.505464554761457</v>
+      </c>
+      <c r="H154">
+        <v>0.3056766891139236</v>
+      </c>
+      <c r="I154">
+        <v>0.01454865536007833</v>
+      </c>
+      <c r="J154">
+        <v>0.001628794592710254</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154" t="s">
+        <v>14</v>
+      </c>
+      <c r="M154">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N154">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>153</v>
+      </c>
+      <c r="C155">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D155">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0.505302260960138</v>
+      </c>
+      <c r="H155">
+        <v>0.3058595796520812</v>
+      </c>
+      <c r="I155">
+        <v>0.01451913416245522</v>
+      </c>
+      <c r="J155">
+        <v>0.001676297211074619</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155" t="s">
+        <v>14</v>
+      </c>
+      <c r="M155">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N155">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>154</v>
+      </c>
+      <c r="C156">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D156">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0.5053504543375569</v>
+      </c>
+      <c r="H156">
+        <v>0.305805236507625</v>
+      </c>
+      <c r="I156">
+        <v>0.01449836133701533</v>
+      </c>
+      <c r="J156">
+        <v>0.001710459220541253</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156" t="s">
+        <v>14</v>
+      </c>
+      <c r="M156">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N156">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>155</v>
+      </c>
+      <c r="C157">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D157">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0.5051911920745487</v>
+      </c>
+      <c r="H157">
+        <v>0.3059849293736229</v>
+      </c>
+      <c r="I157">
+        <v>0.01446260328674632</v>
+      </c>
+      <c r="J157">
+        <v>0.00177057604360999</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157" t="s">
+        <v>14</v>
+      </c>
+      <c r="M157">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N157">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>156</v>
+      </c>
+      <c r="C158">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D158">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0.505282262641655</v>
+      </c>
+      <c r="H158">
+        <v>0.3058821381886295</v>
+      </c>
+      <c r="I158">
+        <v>0.01444908796669836</v>
+      </c>
+      <c r="J158">
+        <v>0.001793701673952579</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158" t="s">
+        <v>14</v>
+      </c>
+      <c r="M158">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N158">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>157</v>
+      </c>
+      <c r="C159">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D159">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0.5053945591298212</v>
+      </c>
+      <c r="H159">
+        <v>0.3057555284969954</v>
+      </c>
+      <c r="I159">
+        <v>0.01442554995031049</v>
+      </c>
+      <c r="J159">
+        <v>0.001834469488694309</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159" t="s">
+        <v>14</v>
+      </c>
+      <c r="M159">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N159">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>158</v>
+      </c>
+      <c r="C160">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D160">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0.505306762581996</v>
+      </c>
+      <c r="H160">
+        <v>0.3058545023971597</v>
+      </c>
+      <c r="I160">
+        <v>0.01440892257758917</v>
+      </c>
+      <c r="J160">
+        <v>0.001863626501786442</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>14</v>
+      </c>
+      <c r="M160">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N160">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>159</v>
+      </c>
+      <c r="C161">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D161">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0.5053690306447753</v>
+      </c>
+      <c r="H161">
+        <v>0.3057842973128755</v>
+      </c>
+      <c r="I161">
+        <v>0.01439085574705627</v>
+      </c>
+      <c r="J161">
+        <v>0.001895625981091343</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>14</v>
+      </c>
+      <c r="M161">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N161">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>160</v>
+      </c>
+      <c r="C162">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D162">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0.5052863562641423</v>
+      </c>
+      <c r="H162">
+        <v>0.3058775200970509</v>
+      </c>
+      <c r="I162">
+        <v>0.01437505118090332</v>
+      </c>
+      <c r="J162">
+        <v>0.001923877800943274</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162" t="s">
+        <v>14</v>
+      </c>
+      <c r="M162">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N162">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>161</v>
+      </c>
+      <c r="C163">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D163">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0.5054697296919544</v>
+      </c>
+      <c r="H163">
+        <v>0.3056708627197822</v>
+      </c>
+      <c r="I163">
+        <v>0.01435069644322646</v>
+      </c>
+      <c r="J163">
+        <v>0.001967862187650851</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>14</v>
+      </c>
+      <c r="M163">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N163">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>162</v>
+      </c>
+      <c r="C164">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D164">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0.5055387959717115</v>
+      </c>
+      <c r="H164">
+        <v>0.3055931331104608</v>
+      </c>
+      <c r="I164">
+        <v>0.0143379588272188</v>
+      </c>
+      <c r="J164">
+        <v>0.001991072447686806</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>14</v>
+      </c>
+      <c r="M164">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N164">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>163</v>
+      </c>
+      <c r="C165">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D165">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0.505604861589159</v>
+      </c>
+      <c r="H165">
+        <v>0.3055188350983852</v>
+      </c>
+      <c r="I165">
+        <v>0.01432565247380271</v>
+      </c>
+      <c r="J165">
+        <v>0.002013625414095479</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>14</v>
+      </c>
+      <c r="M165">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N165">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>164</v>
+      </c>
+      <c r="C166">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D166">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0.5056584814526136</v>
+      </c>
+      <c r="H166">
+        <v>0.3054585729356343</v>
+      </c>
+      <c r="I166">
+        <v>0.01430774867587395</v>
+      </c>
+      <c r="J166">
+        <v>0.00204665332414683</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166" t="s">
+        <v>14</v>
+      </c>
+      <c r="M166">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N166">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>165</v>
+      </c>
+      <c r="C167">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D167">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0.5057942215506467</v>
+      </c>
+      <c r="H167">
+        <v>0.3053061749866972</v>
+      </c>
+      <c r="I167">
+        <v>0.01428774295282761</v>
+      </c>
+      <c r="J167">
+        <v>0.002083849362874997</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167" t="s">
+        <v>14</v>
+      </c>
+      <c r="M167">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N167">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>166</v>
+      </c>
+      <c r="C168">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D168">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0.5058593050086894</v>
+      </c>
+      <c r="H168">
+        <v>0.305233184634104</v>
+      </c>
+      <c r="I168">
+        <v>0.01427163164703128</v>
+      </c>
+      <c r="J168">
+        <v>0.002114017014153259</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168" t="s">
+        <v>14</v>
+      </c>
+      <c r="M168">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N168">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>167</v>
+      </c>
+      <c r="C169">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D169">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0.5059421639758637</v>
+      </c>
+      <c r="H169">
+        <v>0.305140334420359</v>
+      </c>
+      <c r="I169">
+        <v>0.01426004609669721</v>
+      </c>
+      <c r="J169">
+        <v>0.002135822629765011</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169" t="s">
+        <v>14</v>
+      </c>
+      <c r="M169">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N169">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>168</v>
+      </c>
+      <c r="C170">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D170">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0.5059189311275663</v>
+      </c>
+      <c r="H170">
+        <v>0.3051663602184866</v>
+      </c>
+      <c r="I170">
+        <v>0.01423297725671984</v>
+      </c>
+      <c r="J170">
+        <v>0.002187118626426147</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170" t="s">
+        <v>14</v>
+      </c>
+      <c r="M170">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N170">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>169</v>
+      </c>
+      <c r="C171">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D171">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0.5060364007563825</v>
+      </c>
+      <c r="H171">
+        <v>0.3050348368693166</v>
+      </c>
+      <c r="I171">
+        <v>0.01421304169906402</v>
+      </c>
+      <c r="J171">
+        <v>0.002225193582345701</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171" t="s">
+        <v>14</v>
+      </c>
+      <c r="M171">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N171">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>170</v>
+      </c>
+      <c r="C172">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D172">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0.5059610108494814</v>
+      </c>
+      <c r="H172">
+        <v>0.3051192267264928</v>
+      </c>
+      <c r="I172">
+        <v>0.01419968639257251</v>
+      </c>
+      <c r="J172">
+        <v>0.002250834467380348</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172" t="s">
+        <v>14</v>
+      </c>
+      <c r="M172">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N172">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>171</v>
+      </c>
+      <c r="C173">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D173">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0.5061439987260291</v>
+      </c>
+      <c r="H173">
+        <v>0.3049145149687383</v>
+      </c>
+      <c r="I173">
+        <v>0.01417884950851396</v>
+      </c>
+      <c r="J173">
+        <v>0.002291043567342194</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173" t="s">
+        <v>14</v>
+      </c>
+      <c r="M173">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N173">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>172</v>
+      </c>
+      <c r="C174">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D174">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0.5060189748757135</v>
+      </c>
+      <c r="H174">
+        <v>0.3050543368258573</v>
+      </c>
+      <c r="I174">
+        <v>0.01415656379989741</v>
+      </c>
+      <c r="J174">
+        <v>0.002334311196678301</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174" t="s">
+        <v>14</v>
+      </c>
+      <c r="M174">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N174">
+        <v>0.09881395413029578</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>173</v>
+      </c>
+      <c r="C175">
+        <v>0.6467388167388167</v>
+      </c>
+      <c r="D175">
+        <v>0.2869437686461668</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0.5060881953729367</v>
+      </c>
+      <c r="H175">
+        <v>0.3049768995452894</v>
+      </c>
+      <c r="I175">
+        <v>0.01414160755624631</v>
+      </c>
+      <c r="J175">
+        <v>0.002363493703936202</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175" t="s">
+        <v>14</v>
+      </c>
+      <c r="M175">
+        <v>0.8572222222222221</v>
+      </c>
+      <c r="N175">
+        <v>0.09881395413029578</v>
       </c>
     </row>
   </sheetData>
